--- a/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9936626596232315</v>
+        <v>0.9936626596232316</v>
       </c>
       <c r="D2">
         <v>1.012646879098236</v>
@@ -436,7 +436,7 @@
         <v>1.041987334945867</v>
       </c>
       <c r="J2">
-        <v>1.016034585899498</v>
+        <v>1.016034585899499</v>
       </c>
       <c r="K2">
         <v>1.023932790278862</v>
@@ -474,7 +474,7 @@
         <v>1.02774929373053</v>
       </c>
       <c r="L3">
-        <v>1.016650031105234</v>
+        <v>1.016650031105233</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,13 +485,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00412584103533</v>
+        <v>1.004125841035329</v>
       </c>
       <c r="D4">
-        <v>1.020283265831918</v>
+        <v>1.020283265831917</v>
       </c>
       <c r="E4">
-        <v>1.009409568078516</v>
+        <v>1.009409568078515</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -500,13 +500,13 @@
         <v>1.045346900914206</v>
       </c>
       <c r="J4">
-        <v>1.023424592979117</v>
+        <v>1.023424592979116</v>
       </c>
       <c r="K4">
-        <v>1.030142901227053</v>
+        <v>1.030142901227052</v>
       </c>
       <c r="L4">
-        <v>1.019395739094229</v>
+        <v>1.019395739094228</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +517,28 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005798140261445</v>
+        <v>1.005798140261444</v>
       </c>
       <c r="D5">
-        <v>1.021504407566677</v>
+        <v>1.021504407566676</v>
       </c>
       <c r="E5">
-        <v>1.010783128230001</v>
+        <v>1.010783128229999</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045876392833388</v>
+        <v>1.045876392833387</v>
       </c>
       <c r="J5">
-        <v>1.024603357060107</v>
+        <v>1.024603357060106</v>
       </c>
       <c r="K5">
-        <v>1.031131768085548</v>
+        <v>1.031131768085547</v>
       </c>
       <c r="L5">
-        <v>1.020531748518869</v>
+        <v>1.020531748518868</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,28 +549,28 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006077421785542</v>
+        <v>1.006077421785539</v>
       </c>
       <c r="D6">
-        <v>1.02170835626521</v>
+        <v>1.021708356265208</v>
       </c>
       <c r="E6">
-        <v>1.011012605183849</v>
+        <v>1.011012605183846</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045964603341903</v>
+        <v>1.045964603341901</v>
       </c>
       <c r="J6">
-        <v>1.024800145036784</v>
+        <v>1.024800145036781</v>
       </c>
       <c r="K6">
-        <v>1.031296803876396</v>
+        <v>1.031296803876394</v>
       </c>
       <c r="L6">
-        <v>1.020721441158408</v>
+        <v>1.020721441158406</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -581,28 +581,28 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004148288011358</v>
+        <v>1.00414828801136</v>
       </c>
       <c r="D7">
-        <v>1.020299656098762</v>
+        <v>1.020299656098764</v>
       </c>
       <c r="E7">
-        <v>1.00942799928717</v>
+        <v>1.009427999287173</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045354022749634</v>
+        <v>1.045354022749636</v>
       </c>
       <c r="J7">
-        <v>1.023440420056358</v>
+        <v>1.023440420056361</v>
       </c>
       <c r="K7">
-        <v>1.030156181928273</v>
+        <v>1.030156181928274</v>
       </c>
       <c r="L7">
-        <v>1.019410989262667</v>
+        <v>1.01941098926267</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,28 +613,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9958580180167128</v>
+        <v>0.9958580180167113</v>
       </c>
       <c r="D8">
-        <v>1.014248433796548</v>
+        <v>1.014248433796547</v>
       </c>
       <c r="E8">
-        <v>1.002631581066544</v>
+        <v>1.002631581066542</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042698479236311</v>
+        <v>1.04269847923631</v>
       </c>
       <c r="J8">
-        <v>1.017587056435749</v>
+        <v>1.017587056435748</v>
       </c>
       <c r="K8">
-        <v>1.025238798844107</v>
+        <v>1.025238798844106</v>
       </c>
       <c r="L8">
-        <v>1.013776023521876</v>
+        <v>1.013776023521874</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,13 +645,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9802984028299975</v>
+        <v>0.980298402829998</v>
       </c>
       <c r="D9">
-        <v>1.002908314876592</v>
+        <v>1.002908314876593</v>
       </c>
       <c r="E9">
-        <v>0.9899328463462216</v>
+        <v>0.9899328463462221</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -663,7 +663,7 @@
         <v>1.00656658571408</v>
       </c>
       <c r="K9">
-        <v>1.015954382274747</v>
+        <v>1.015954382274748</v>
       </c>
       <c r="L9">
         <v>1.003191395441168</v>
@@ -677,28 +677,28 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9691827569275662</v>
+        <v>0.9691827569275652</v>
       </c>
       <c r="D10">
-        <v>0.9948264519519728</v>
+        <v>0.9948264519519721</v>
       </c>
       <c r="E10">
-        <v>0.9809060677379011</v>
+        <v>0.9809060677379003</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033876903876552</v>
+        <v>1.033876903876551</v>
       </c>
       <c r="J10">
-        <v>0.9986747616937508</v>
+        <v>0.9986747616937498</v>
       </c>
       <c r="K10">
-        <v>1.009289748934189</v>
+        <v>1.009289748934188</v>
       </c>
       <c r="L10">
-        <v>0.9956288445088679</v>
+        <v>0.9956288445088672</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,13 +709,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9641669516310263</v>
+        <v>0.9641669516310265</v>
       </c>
       <c r="D11">
-        <v>0.9911861516621899</v>
+        <v>0.9911861516621905</v>
       </c>
       <c r="E11">
-        <v>0.9768451111185636</v>
+        <v>0.9768451111185644</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.032181672815476</v>
       </c>
       <c r="J11">
-        <v>0.9951103274267026</v>
+        <v>0.995110327426703</v>
       </c>
       <c r="K11">
-        <v>1.006276220640369</v>
+        <v>1.00627622064037</v>
       </c>
       <c r="L11">
-        <v>0.992217316554473</v>
+        <v>0.9922173165544736</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,13 +741,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9622708452235545</v>
+        <v>0.962270845223554</v>
       </c>
       <c r="D12">
-        <v>0.9898111877714992</v>
+        <v>0.9898111877714988</v>
       </c>
       <c r="E12">
-        <v>0.9753119547981985</v>
+        <v>0.975311954798198</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -756,13 +756,13 @@
         <v>1.031538431820081</v>
       </c>
       <c r="J12">
-        <v>0.9937624832041266</v>
+        <v>0.9937624832041262</v>
       </c>
       <c r="K12">
-        <v>1.005136227733661</v>
+        <v>1.00513622773366</v>
       </c>
       <c r="L12">
-        <v>0.9909279320578086</v>
+        <v>0.990927932057808</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9626791048538413</v>
+        <v>0.9626791048538411</v>
       </c>
       <c r="D13">
-        <v>0.9901071820400019</v>
+        <v>0.9901071820400015</v>
       </c>
       <c r="E13">
-        <v>0.9756419734674854</v>
+        <v>0.9756419734674848</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.031677037538084</v>
       </c>
       <c r="J13">
-        <v>0.9940527098786669</v>
+        <v>0.9940527098786666</v>
       </c>
       <c r="K13">
         <v>1.005381718892352</v>
       </c>
       <c r="L13">
-        <v>0.9912055417038244</v>
+        <v>0.9912055417038239</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,13 +805,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9640109082351848</v>
+        <v>0.9640109082351855</v>
       </c>
       <c r="D14">
-        <v>0.9910729718547651</v>
+        <v>0.9910729718547662</v>
       </c>
       <c r="E14">
-        <v>0.9767188960171412</v>
+        <v>0.9767188960171423</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.032128784184476</v>
       </c>
       <c r="J14">
-        <v>0.9949994115715718</v>
+        <v>0.9949994115715728</v>
       </c>
       <c r="K14">
-        <v>1.006182418367136</v>
+        <v>1.006182418367137</v>
       </c>
       <c r="L14">
-        <v>0.9921111983694156</v>
+        <v>0.9921111983694166</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9648270199174518</v>
+        <v>0.964827019917452</v>
       </c>
       <c r="D15">
-        <v>0.991664954184809</v>
+        <v>0.9916649541848093</v>
       </c>
       <c r="E15">
-        <v>0.9773790867416746</v>
+        <v>0.9773790867416751</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -852,13 +852,13 @@
         <v>1.032405296441673</v>
       </c>
       <c r="J15">
-        <v>0.9955794894833117</v>
+        <v>0.9955794894833119</v>
       </c>
       <c r="K15">
         <v>1.006672975370964</v>
       </c>
       <c r="L15">
-        <v>0.9926662110867419</v>
+        <v>0.9926662110867421</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,13 +869,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9695111572429685</v>
+        <v>0.9695111572429694</v>
       </c>
       <c r="D16">
-        <v>0.9950649442465072</v>
+        <v>0.9950649442465077</v>
       </c>
       <c r="E16">
-        <v>0.9811722175786781</v>
+        <v>0.9811722175786788</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -884,13 +884,13 @@
         <v>1.033987558999904</v>
       </c>
       <c r="J16">
-        <v>0.9989080758571928</v>
+        <v>0.9989080758571938</v>
       </c>
       <c r="K16">
-        <v>1.009486936385679</v>
+        <v>1.00948693638568</v>
       </c>
       <c r="L16">
-        <v>0.9958522376374822</v>
+        <v>0.995852237637483</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,13 +901,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9723934141198622</v>
+        <v>0.9723934141198615</v>
       </c>
       <c r="D17">
-        <v>0.9971588693261774</v>
+        <v>0.9971588693261766</v>
       </c>
       <c r="E17">
-        <v>0.9835095267189911</v>
+        <v>0.9835095267189903</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1.034956866949186</v>
       </c>
       <c r="J17">
-        <v>1.000955428626044</v>
+        <v>1.000955428626043</v>
       </c>
       <c r="K17">
-        <v>1.011216897915932</v>
+        <v>1.011216897915931</v>
       </c>
       <c r="L17">
-        <v>0.9978130065274511</v>
+        <v>0.9978130065274503</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -933,13 +933,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9740552204417858</v>
+        <v>0.9740552204417855</v>
       </c>
       <c r="D18">
-        <v>0.9983667551962656</v>
+        <v>0.9983667551962652</v>
       </c>
       <c r="E18">
-        <v>0.9848582803546945</v>
+        <v>0.9848582803546941</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>1.012213740251717</v>
       </c>
       <c r="L18">
-        <v>0.9989436005089907</v>
+        <v>0.9989436005089904</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,13 +965,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9746186419766729</v>
+        <v>0.9746186419766727</v>
       </c>
       <c r="D19">
-        <v>0.9987763760457227</v>
+        <v>0.9987763760457223</v>
       </c>
       <c r="E19">
-        <v>0.9853157540045354</v>
+        <v>0.985315754004535</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -980,13 +980,13 @@
         <v>1.035702830441722</v>
       </c>
       <c r="J19">
-        <v>1.002535585432847</v>
+        <v>1.002535585432846</v>
       </c>
       <c r="K19">
         <v>1.012551607273938</v>
       </c>
       <c r="L19">
-        <v>0.9993269300798049</v>
+        <v>0.9993269300798047</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,13 +997,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9720861958943077</v>
+        <v>0.9720861958943078</v>
       </c>
       <c r="D20">
-        <v>0.9969356150307466</v>
+        <v>0.9969356150307467</v>
       </c>
       <c r="E20">
-        <v>0.9832602742461297</v>
+        <v>0.9832602742461298</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1.011032562824711</v>
       </c>
       <c r="L20">
-        <v>0.9976039996356879</v>
+        <v>0.9976039996356878</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,28 +1029,28 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9636196587548136</v>
+        <v>0.9636196587548123</v>
       </c>
       <c r="D21">
-        <v>0.9907892141580216</v>
+        <v>0.9907892141580207</v>
       </c>
       <c r="E21">
-        <v>0.9764024679513111</v>
+        <v>0.9764024679513097</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031996137681355</v>
+        <v>1.031996137681354</v>
       </c>
       <c r="J21">
-        <v>0.9947213049577321</v>
+        <v>0.994721304957731</v>
       </c>
       <c r="K21">
-        <v>1.005947214397327</v>
+        <v>1.005947214397326</v>
       </c>
       <c r="L21">
-        <v>0.9918451316071825</v>
+        <v>0.9918451316071814</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9581039104433247</v>
+        <v>0.9581039104433245</v>
       </c>
       <c r="D22">
         <v>0.9867918950320782</v>
       </c>
       <c r="E22">
-        <v>0.9719464994126437</v>
+        <v>0.9719464994126435</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>1.030120532639129</v>
       </c>
       <c r="J22">
-        <v>0.9907998252695595</v>
+        <v>0.9907998252695593</v>
       </c>
       <c r="K22">
         <v>1.002629627882226</v>
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9610470970564444</v>
+        <v>0.9610470970564443</v>
       </c>
       <c r="D23">
-        <v>0.9889241380230129</v>
+        <v>0.9889241380230128</v>
       </c>
       <c r="E23">
-        <v>0.9743230362310461</v>
+        <v>0.9743230362310465</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.031122621797005</v>
       </c>
       <c r="J23">
-        <v>0.9928924869560272</v>
+        <v>0.9928924869560273</v>
       </c>
       <c r="K23">
         <v>1.004400267452038</v>
       </c>
       <c r="L23">
-        <v>0.9900958519709355</v>
+        <v>0.9900958519709357</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9722250742409595</v>
+        <v>0.9722250742409602</v>
       </c>
       <c r="D24">
-        <v>0.997036535527137</v>
+        <v>0.9970365355271373</v>
       </c>
       <c r="E24">
-        <v>0.9833729455648986</v>
+        <v>0.9833729455648993</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.034900348324296</v>
       </c>
       <c r="J24">
-        <v>1.000835870738344</v>
+        <v>1.000835870738345</v>
       </c>
       <c r="K24">
         <v>1.011115893558352</v>
       </c>
       <c r="L24">
-        <v>0.9976984811831791</v>
+        <v>0.9976984811831797</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,28 +1157,28 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9844436245662154</v>
+        <v>0.9844436245662148</v>
       </c>
       <c r="D25">
         <v>1.005926699261632</v>
       </c>
       <c r="E25">
-        <v>0.9933086871446025</v>
+        <v>0.9933086871446019</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038969089111818</v>
+        <v>1.038969089111817</v>
       </c>
       <c r="J25">
-        <v>1.009506109002212</v>
+        <v>1.009506109002211</v>
       </c>
       <c r="K25">
         <v>1.018433702311589</v>
       </c>
       <c r="L25">
-        <v>1.006011772891956</v>
+        <v>1.006011772891955</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9936626596232316</v>
+        <v>0.9936626596232315</v>
       </c>
       <c r="D2">
         <v>1.012646879098236</v>
@@ -436,7 +436,7 @@
         <v>1.041987334945867</v>
       </c>
       <c r="J2">
-        <v>1.016034585899499</v>
+        <v>1.016034585899498</v>
       </c>
       <c r="K2">
         <v>1.023932790278862</v>
@@ -474,7 +474,7 @@
         <v>1.02774929373053</v>
       </c>
       <c r="L3">
-        <v>1.016650031105233</v>
+        <v>1.016650031105234</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,13 +485,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004125841035329</v>
+        <v>1.00412584103533</v>
       </c>
       <c r="D4">
-        <v>1.020283265831917</v>
+        <v>1.020283265831918</v>
       </c>
       <c r="E4">
-        <v>1.009409568078515</v>
+        <v>1.009409568078516</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -500,13 +500,13 @@
         <v>1.045346900914206</v>
       </c>
       <c r="J4">
-        <v>1.023424592979116</v>
+        <v>1.023424592979117</v>
       </c>
       <c r="K4">
-        <v>1.030142901227052</v>
+        <v>1.030142901227053</v>
       </c>
       <c r="L4">
-        <v>1.019395739094228</v>
+        <v>1.019395739094229</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +517,28 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005798140261444</v>
+        <v>1.005798140261445</v>
       </c>
       <c r="D5">
-        <v>1.021504407566676</v>
+        <v>1.021504407566677</v>
       </c>
       <c r="E5">
-        <v>1.010783128229999</v>
+        <v>1.010783128230001</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045876392833387</v>
+        <v>1.045876392833388</v>
       </c>
       <c r="J5">
-        <v>1.024603357060106</v>
+        <v>1.024603357060107</v>
       </c>
       <c r="K5">
-        <v>1.031131768085547</v>
+        <v>1.031131768085548</v>
       </c>
       <c r="L5">
-        <v>1.020531748518868</v>
+        <v>1.020531748518869</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,28 +549,28 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006077421785539</v>
+        <v>1.006077421785542</v>
       </c>
       <c r="D6">
-        <v>1.021708356265208</v>
+        <v>1.02170835626521</v>
       </c>
       <c r="E6">
-        <v>1.011012605183846</v>
+        <v>1.011012605183849</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045964603341901</v>
+        <v>1.045964603341903</v>
       </c>
       <c r="J6">
-        <v>1.024800145036781</v>
+        <v>1.024800145036784</v>
       </c>
       <c r="K6">
-        <v>1.031296803876394</v>
+        <v>1.031296803876396</v>
       </c>
       <c r="L6">
-        <v>1.020721441158406</v>
+        <v>1.020721441158408</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -581,28 +581,28 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00414828801136</v>
+        <v>1.004148288011358</v>
       </c>
       <c r="D7">
-        <v>1.020299656098764</v>
+        <v>1.020299656098762</v>
       </c>
       <c r="E7">
-        <v>1.009427999287173</v>
+        <v>1.00942799928717</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045354022749636</v>
+        <v>1.045354022749634</v>
       </c>
       <c r="J7">
-        <v>1.023440420056361</v>
+        <v>1.023440420056358</v>
       </c>
       <c r="K7">
-        <v>1.030156181928274</v>
+        <v>1.030156181928273</v>
       </c>
       <c r="L7">
-        <v>1.01941098926267</v>
+        <v>1.019410989262667</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,28 +613,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9958580180167113</v>
+        <v>0.9958580180167128</v>
       </c>
       <c r="D8">
-        <v>1.014248433796547</v>
+        <v>1.014248433796548</v>
       </c>
       <c r="E8">
-        <v>1.002631581066542</v>
+        <v>1.002631581066544</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04269847923631</v>
+        <v>1.042698479236311</v>
       </c>
       <c r="J8">
-        <v>1.017587056435748</v>
+        <v>1.017587056435749</v>
       </c>
       <c r="K8">
-        <v>1.025238798844106</v>
+        <v>1.025238798844107</v>
       </c>
       <c r="L8">
-        <v>1.013776023521874</v>
+        <v>1.013776023521876</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,13 +645,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.980298402829998</v>
+        <v>0.9802984028299975</v>
       </c>
       <c r="D9">
-        <v>1.002908314876593</v>
+        <v>1.002908314876592</v>
       </c>
       <c r="E9">
-        <v>0.9899328463462221</v>
+        <v>0.9899328463462216</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -663,7 +663,7 @@
         <v>1.00656658571408</v>
       </c>
       <c r="K9">
-        <v>1.015954382274748</v>
+        <v>1.015954382274747</v>
       </c>
       <c r="L9">
         <v>1.003191395441168</v>
@@ -677,28 +677,28 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9691827569275652</v>
+        <v>0.9691827569275662</v>
       </c>
       <c r="D10">
-        <v>0.9948264519519721</v>
+        <v>0.9948264519519728</v>
       </c>
       <c r="E10">
-        <v>0.9809060677379003</v>
+        <v>0.9809060677379011</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033876903876551</v>
+        <v>1.033876903876552</v>
       </c>
       <c r="J10">
-        <v>0.9986747616937498</v>
+        <v>0.9986747616937508</v>
       </c>
       <c r="K10">
-        <v>1.009289748934188</v>
+        <v>1.009289748934189</v>
       </c>
       <c r="L10">
-        <v>0.9956288445088672</v>
+        <v>0.9956288445088679</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,13 +709,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9641669516310265</v>
+        <v>0.9641669516310263</v>
       </c>
       <c r="D11">
-        <v>0.9911861516621905</v>
+        <v>0.9911861516621899</v>
       </c>
       <c r="E11">
-        <v>0.9768451111185644</v>
+        <v>0.9768451111185636</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.032181672815476</v>
       </c>
       <c r="J11">
-        <v>0.995110327426703</v>
+        <v>0.9951103274267026</v>
       </c>
       <c r="K11">
-        <v>1.00627622064037</v>
+        <v>1.006276220640369</v>
       </c>
       <c r="L11">
-        <v>0.9922173165544736</v>
+        <v>0.992217316554473</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,13 +741,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.962270845223554</v>
+        <v>0.9622708452235545</v>
       </c>
       <c r="D12">
-        <v>0.9898111877714988</v>
+        <v>0.9898111877714992</v>
       </c>
       <c r="E12">
-        <v>0.975311954798198</v>
+        <v>0.9753119547981985</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -756,13 +756,13 @@
         <v>1.031538431820081</v>
       </c>
       <c r="J12">
-        <v>0.9937624832041262</v>
+        <v>0.9937624832041266</v>
       </c>
       <c r="K12">
-        <v>1.00513622773366</v>
+        <v>1.005136227733661</v>
       </c>
       <c r="L12">
-        <v>0.990927932057808</v>
+        <v>0.9909279320578086</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9626791048538411</v>
+        <v>0.9626791048538413</v>
       </c>
       <c r="D13">
-        <v>0.9901071820400015</v>
+        <v>0.9901071820400019</v>
       </c>
       <c r="E13">
-        <v>0.9756419734674848</v>
+        <v>0.9756419734674854</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.031677037538084</v>
       </c>
       <c r="J13">
-        <v>0.9940527098786666</v>
+        <v>0.9940527098786669</v>
       </c>
       <c r="K13">
         <v>1.005381718892352</v>
       </c>
       <c r="L13">
-        <v>0.9912055417038239</v>
+        <v>0.9912055417038244</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,13 +805,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9640109082351855</v>
+        <v>0.9640109082351848</v>
       </c>
       <c r="D14">
-        <v>0.9910729718547662</v>
+        <v>0.9910729718547651</v>
       </c>
       <c r="E14">
-        <v>0.9767188960171423</v>
+        <v>0.9767188960171412</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.032128784184476</v>
       </c>
       <c r="J14">
-        <v>0.9949994115715728</v>
+        <v>0.9949994115715718</v>
       </c>
       <c r="K14">
-        <v>1.006182418367137</v>
+        <v>1.006182418367136</v>
       </c>
       <c r="L14">
-        <v>0.9921111983694166</v>
+        <v>0.9921111983694156</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.964827019917452</v>
+        <v>0.9648270199174518</v>
       </c>
       <c r="D15">
-        <v>0.9916649541848093</v>
+        <v>0.991664954184809</v>
       </c>
       <c r="E15">
-        <v>0.9773790867416751</v>
+        <v>0.9773790867416746</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -852,13 +852,13 @@
         <v>1.032405296441673</v>
       </c>
       <c r="J15">
-        <v>0.9955794894833119</v>
+        <v>0.9955794894833117</v>
       </c>
       <c r="K15">
         <v>1.006672975370964</v>
       </c>
       <c r="L15">
-        <v>0.9926662110867421</v>
+        <v>0.9926662110867419</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,13 +869,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9695111572429694</v>
+        <v>0.9695111572429685</v>
       </c>
       <c r="D16">
-        <v>0.9950649442465077</v>
+        <v>0.9950649442465072</v>
       </c>
       <c r="E16">
-        <v>0.9811722175786788</v>
+        <v>0.9811722175786781</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -884,13 +884,13 @@
         <v>1.033987558999904</v>
       </c>
       <c r="J16">
-        <v>0.9989080758571938</v>
+        <v>0.9989080758571928</v>
       </c>
       <c r="K16">
-        <v>1.00948693638568</v>
+        <v>1.009486936385679</v>
       </c>
       <c r="L16">
-        <v>0.995852237637483</v>
+        <v>0.9958522376374822</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,13 +901,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9723934141198615</v>
+        <v>0.9723934141198622</v>
       </c>
       <c r="D17">
-        <v>0.9971588693261766</v>
+        <v>0.9971588693261774</v>
       </c>
       <c r="E17">
-        <v>0.9835095267189903</v>
+        <v>0.9835095267189911</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1.034956866949186</v>
       </c>
       <c r="J17">
-        <v>1.000955428626043</v>
+        <v>1.000955428626044</v>
       </c>
       <c r="K17">
-        <v>1.011216897915931</v>
+        <v>1.011216897915932</v>
       </c>
       <c r="L17">
-        <v>0.9978130065274503</v>
+        <v>0.9978130065274511</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -933,13 +933,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9740552204417855</v>
+        <v>0.9740552204417858</v>
       </c>
       <c r="D18">
-        <v>0.9983667551962652</v>
+        <v>0.9983667551962656</v>
       </c>
       <c r="E18">
-        <v>0.9848582803546941</v>
+        <v>0.9848582803546945</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>1.012213740251717</v>
       </c>
       <c r="L18">
-        <v>0.9989436005089904</v>
+        <v>0.9989436005089907</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,13 +965,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9746186419766727</v>
+        <v>0.9746186419766729</v>
       </c>
       <c r="D19">
-        <v>0.9987763760457223</v>
+        <v>0.9987763760457227</v>
       </c>
       <c r="E19">
-        <v>0.985315754004535</v>
+        <v>0.9853157540045354</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -980,13 +980,13 @@
         <v>1.035702830441722</v>
       </c>
       <c r="J19">
-        <v>1.002535585432846</v>
+        <v>1.002535585432847</v>
       </c>
       <c r="K19">
         <v>1.012551607273938</v>
       </c>
       <c r="L19">
-        <v>0.9993269300798047</v>
+        <v>0.9993269300798049</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,13 +997,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9720861958943078</v>
+        <v>0.9720861958943077</v>
       </c>
       <c r="D20">
-        <v>0.9969356150307467</v>
+        <v>0.9969356150307466</v>
       </c>
       <c r="E20">
-        <v>0.9832602742461298</v>
+        <v>0.9832602742461297</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1.011032562824711</v>
       </c>
       <c r="L20">
-        <v>0.9976039996356878</v>
+        <v>0.9976039996356879</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,28 +1029,28 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9636196587548123</v>
+        <v>0.9636196587548136</v>
       </c>
       <c r="D21">
-        <v>0.9907892141580207</v>
+        <v>0.9907892141580216</v>
       </c>
       <c r="E21">
-        <v>0.9764024679513097</v>
+        <v>0.9764024679513111</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031996137681354</v>
+        <v>1.031996137681355</v>
       </c>
       <c r="J21">
-        <v>0.994721304957731</v>
+        <v>0.9947213049577321</v>
       </c>
       <c r="K21">
-        <v>1.005947214397326</v>
+        <v>1.005947214397327</v>
       </c>
       <c r="L21">
-        <v>0.9918451316071814</v>
+        <v>0.9918451316071825</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9581039104433245</v>
+        <v>0.9581039104433247</v>
       </c>
       <c r="D22">
         <v>0.9867918950320782</v>
       </c>
       <c r="E22">
-        <v>0.9719464994126435</v>
+        <v>0.9719464994126437</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>1.030120532639129</v>
       </c>
       <c r="J22">
-        <v>0.9907998252695593</v>
+        <v>0.9907998252695595</v>
       </c>
       <c r="K22">
         <v>1.002629627882226</v>
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9610470970564443</v>
+        <v>0.9610470970564444</v>
       </c>
       <c r="D23">
-        <v>0.9889241380230128</v>
+        <v>0.9889241380230129</v>
       </c>
       <c r="E23">
-        <v>0.9743230362310465</v>
+        <v>0.9743230362310461</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.031122621797005</v>
       </c>
       <c r="J23">
-        <v>0.9928924869560273</v>
+        <v>0.9928924869560272</v>
       </c>
       <c r="K23">
         <v>1.004400267452038</v>
       </c>
       <c r="L23">
-        <v>0.9900958519709357</v>
+        <v>0.9900958519709355</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9722250742409602</v>
+        <v>0.9722250742409595</v>
       </c>
       <c r="D24">
-        <v>0.9970365355271373</v>
+        <v>0.997036535527137</v>
       </c>
       <c r="E24">
-        <v>0.9833729455648993</v>
+        <v>0.9833729455648986</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.034900348324296</v>
       </c>
       <c r="J24">
-        <v>1.000835870738345</v>
+        <v>1.000835870738344</v>
       </c>
       <c r="K24">
         <v>1.011115893558352</v>
       </c>
       <c r="L24">
-        <v>0.9976984811831797</v>
+        <v>0.9976984811831791</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,28 +1157,28 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9844436245662148</v>
+        <v>0.9844436245662154</v>
       </c>
       <c r="D25">
         <v>1.005926699261632</v>
       </c>
       <c r="E25">
-        <v>0.9933086871446019</v>
+        <v>0.9933086871446025</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038969089111817</v>
+        <v>1.038969089111818</v>
       </c>
       <c r="J25">
-        <v>1.009506109002211</v>
+        <v>1.009506109002212</v>
       </c>
       <c r="K25">
         <v>1.018433702311589</v>
       </c>
       <c r="L25">
-        <v>1.006011772891955</v>
+        <v>1.006011772891956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
@@ -421,28 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9936626596232315</v>
+        <v>0.9958265979193826</v>
       </c>
       <c r="D2">
-        <v>1.012646879098236</v>
+        <v>1.014308511432501</v>
       </c>
       <c r="E2">
-        <v>1.000835382877948</v>
+        <v>1.002698546935673</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041987334945867</v>
+        <v>1.042927137082182</v>
       </c>
       <c r="J2">
-        <v>1.016034585899498</v>
+        <v>1.018132855306441</v>
       </c>
       <c r="K2">
-        <v>1.023932790278862</v>
+        <v>1.025572041077054</v>
       </c>
       <c r="L2">
-        <v>1.012283091746375</v>
+        <v>1.014120414303321</v>
+      </c>
+      <c r="N2">
+        <v>1.019578720742447</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,28 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000085402584507</v>
+        <v>1.002235561507183</v>
       </c>
       <c r="D3">
-        <v>1.017333496582376</v>
+        <v>1.018987152487128</v>
       </c>
       <c r="E3">
-        <v>1.006094541653349</v>
+        <v>1.007948371313824</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044058760271117</v>
+        <v>1.044995227746053</v>
       </c>
       <c r="J3">
-        <v>1.020573739710092</v>
+        <v>1.022665467834053</v>
       </c>
       <c r="K3">
-        <v>1.02774929373053</v>
+        <v>1.029382719193099</v>
       </c>
       <c r="L3">
-        <v>1.016650031105234</v>
+        <v>1.018480551464523</v>
+      </c>
+      <c r="N3">
+        <v>1.024117770099746</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,28 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00412584103533</v>
+        <v>1.006267850741868</v>
       </c>
       <c r="D4">
-        <v>1.020283265831918</v>
+        <v>1.021932238729809</v>
       </c>
       <c r="E4">
-        <v>1.009409568078516</v>
+        <v>1.01125789494792</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045346900914206</v>
+        <v>1.046281470179246</v>
       </c>
       <c r="J4">
-        <v>1.023424592979117</v>
+        <v>1.025512571919326</v>
       </c>
       <c r="K4">
-        <v>1.030142901227053</v>
+        <v>1.031772975490979</v>
       </c>
       <c r="L4">
-        <v>1.019395739094229</v>
+        <v>1.021222319702153</v>
+      </c>
+      <c r="N4">
+        <v>1.026968917399387</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005798140261445</v>
+        <v>1.007936893416952</v>
       </c>
       <c r="D5">
-        <v>1.021504407566677</v>
+        <v>1.023151517811124</v>
       </c>
       <c r="E5">
-        <v>1.010783128230001</v>
+        <v>1.012629260610423</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045876392833388</v>
+        <v>1.046810221917228</v>
       </c>
       <c r="J5">
-        <v>1.024603357060107</v>
+        <v>1.026689866766945</v>
       </c>
       <c r="K5">
-        <v>1.031131768085548</v>
+        <v>1.03276052626747</v>
       </c>
       <c r="L5">
-        <v>1.020531748518869</v>
+        <v>1.022356775044898</v>
+      </c>
+      <c r="N5">
+        <v>1.028147884140727</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,28 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006077421785542</v>
+        <v>1.008215637699132</v>
       </c>
       <c r="D6">
-        <v>1.02170835626521</v>
+        <v>1.023355159754741</v>
       </c>
       <c r="E6">
-        <v>1.011012605183849</v>
+        <v>1.012858375808088</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045964603341903</v>
+        <v>1.046898311420547</v>
       </c>
       <c r="J6">
-        <v>1.024800145036784</v>
+        <v>1.026886414084473</v>
       </c>
       <c r="K6">
-        <v>1.031296803876396</v>
+        <v>1.032925346323105</v>
       </c>
       <c r="L6">
-        <v>1.020721441158408</v>
+        <v>1.022546212513809</v>
+      </c>
+      <c r="N6">
+        <v>1.028344710577992</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -581,28 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004148288011358</v>
+        <v>1.006290253555808</v>
       </c>
       <c r="D7">
-        <v>1.020299656098762</v>
+        <v>1.021948603701401</v>
       </c>
       <c r="E7">
-        <v>1.00942799928717</v>
+        <v>1.011276296378636</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045354022749634</v>
+        <v>1.046288581902459</v>
       </c>
       <c r="J7">
-        <v>1.023440420056358</v>
+        <v>1.025528378955393</v>
       </c>
       <c r="K7">
-        <v>1.030156181928273</v>
+        <v>1.031786238251271</v>
       </c>
       <c r="L7">
-        <v>1.019410989262667</v>
+        <v>1.021237548713691</v>
+      </c>
+      <c r="N7">
+        <v>1.026984746883259</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,28 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9958580180167128</v>
+        <v>0.998017131626795</v>
       </c>
       <c r="D8">
-        <v>1.014248433796548</v>
+        <v>1.015907266062274</v>
       </c>
       <c r="E8">
-        <v>1.002631581066544</v>
+        <v>1.004491473097284</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042698479236311</v>
+        <v>1.043637097919374</v>
       </c>
       <c r="J8">
-        <v>1.017587056435749</v>
+        <v>1.019683009452379</v>
       </c>
       <c r="K8">
-        <v>1.025238798844107</v>
+        <v>1.02687598966409</v>
       </c>
       <c r="L8">
-        <v>1.013776023521876</v>
+        <v>1.015610946315269</v>
+      </c>
+      <c r="N8">
+        <v>1.021131076285078</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9802984028299975</v>
+        <v>0.9824943416360234</v>
       </c>
       <c r="D9">
-        <v>1.002908314876592</v>
+        <v>1.004588661784026</v>
       </c>
       <c r="E9">
-        <v>0.9899328463462216</v>
+        <v>0.9918177847935061</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037596756904468</v>
+        <v>1.038544739252876</v>
       </c>
       <c r="J9">
-        <v>1.00656658571408</v>
+        <v>1.008680783720424</v>
       </c>
       <c r="K9">
-        <v>1.015954382274747</v>
+        <v>1.01760772727996</v>
       </c>
       <c r="L9">
-        <v>1.003191395441168</v>
+        <v>1.005045022483903</v>
+      </c>
+      <c r="N9">
+        <v>1.01011322613061</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9691827569275662</v>
+        <v>0.971408893609754</v>
       </c>
       <c r="D10">
-        <v>0.9948264519519728</v>
+        <v>0.9965246064979585</v>
       </c>
       <c r="E10">
-        <v>0.9809060677379011</v>
+        <v>0.9828116259210972</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033876903876552</v>
+        <v>1.034832980161004</v>
       </c>
       <c r="J10">
-        <v>0.9986747616937508</v>
+        <v>1.0008046676405</v>
       </c>
       <c r="K10">
-        <v>1.009289748934189</v>
+        <v>1.010956895052299</v>
       </c>
       <c r="L10">
-        <v>0.9956288445088679</v>
+        <v>0.9974983150860677</v>
+      </c>
+      <c r="N10">
+        <v>1.002225925062449</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,28 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9641669516310263</v>
+        <v>0.9664078374350819</v>
       </c>
       <c r="D11">
-        <v>0.9911861516621899</v>
+        <v>0.9928930349392682</v>
       </c>
       <c r="E11">
-        <v>0.9768451111185636</v>
+        <v>0.9787607543539293</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032181672815476</v>
+        <v>1.033141794210032</v>
       </c>
       <c r="J11">
-        <v>0.9951103274267026</v>
+        <v>0.997248083433279</v>
       </c>
       <c r="K11">
-        <v>1.006276220640369</v>
+        <v>1.007950234394566</v>
       </c>
       <c r="L11">
-        <v>0.992217316554473</v>
+        <v>0.9940946434713193</v>
+      </c>
+      <c r="N11">
+        <v>0.9986642900977082</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9622708452235545</v>
+        <v>0.9645174952858707</v>
       </c>
       <c r="D12">
-        <v>0.9898111877714992</v>
+        <v>0.9915214863881693</v>
       </c>
       <c r="E12">
-        <v>0.9753119547981985</v>
+        <v>0.9772315411007699</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031538431820081</v>
+        <v>1.032500147366954</v>
       </c>
       <c r="J12">
-        <v>0.9937624832041266</v>
+        <v>0.9959033340141932</v>
       </c>
       <c r="K12">
-        <v>1.005136227733661</v>
+        <v>1.006812944183475</v>
       </c>
       <c r="L12">
-        <v>0.9909279320578086</v>
+        <v>0.9928083469695437</v>
+      </c>
+      <c r="N12">
+        <v>0.9973176309802021</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,28 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9626791048538413</v>
+        <v>0.9649245049148983</v>
       </c>
       <c r="D13">
-        <v>0.9901071820400019</v>
+        <v>0.9918167398606159</v>
       </c>
       <c r="E13">
-        <v>0.9756419734674854</v>
+        <v>0.9775607046363513</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031677037538084</v>
+        <v>1.032638406801089</v>
       </c>
       <c r="J13">
-        <v>0.9940527098786669</v>
+        <v>0.9961928883612499</v>
       </c>
       <c r="K13">
-        <v>1.005381718892352</v>
+        <v>1.007057848419122</v>
       </c>
       <c r="L13">
-        <v>0.9912055417038244</v>
+        <v>0.9930852861851087</v>
+      </c>
+      <c r="N13">
+        <v>0.9976075965276442</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9640109082351848</v>
+        <v>0.9662522644650897</v>
       </c>
       <c r="D14">
-        <v>0.9910729718547651</v>
+        <v>0.9927801337849518</v>
       </c>
       <c r="E14">
-        <v>0.9767188960171412</v>
+        <v>0.9786348610198224</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032128784184476</v>
+        <v>1.033089035416537</v>
       </c>
       <c r="J14">
-        <v>0.9949994115715718</v>
+        <v>0.9971374196082321</v>
       </c>
       <c r="K14">
-        <v>1.006182418367136</v>
+        <v>1.007856652317709</v>
       </c>
       <c r="L14">
-        <v>0.9921111983694156</v>
+        <v>0.9939887769481837</v>
+      </c>
+      <c r="N14">
+        <v>0.9985534691173364</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,28 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9648270199174518</v>
+        <v>0.9670659236057517</v>
       </c>
       <c r="D15">
-        <v>0.991664954184809</v>
+        <v>0.9933706635260953</v>
       </c>
       <c r="E15">
-        <v>0.9773790867416746</v>
+        <v>0.9792933742886968</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032405296441673</v>
+        <v>1.033364871300315</v>
       </c>
       <c r="J15">
-        <v>0.9955794894833117</v>
+        <v>0.9977161846511592</v>
       </c>
       <c r="K15">
-        <v>1.006672975370964</v>
+        <v>1.008346062086058</v>
       </c>
       <c r="L15">
-        <v>0.9926662110867419</v>
+        <v>0.9945424783428897</v>
+      </c>
+      <c r="N15">
+        <v>0.9991330560730095</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,31 +911,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9695111572429685</v>
+        <v>0.9717363531341889</v>
       </c>
       <c r="D16">
-        <v>0.9950649442465072</v>
+        <v>0.9967625425883728</v>
       </c>
       <c r="E16">
-        <v>0.9811722175786781</v>
+        <v>0.9830771327175315</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033987558999904</v>
+        <v>1.03494337906032</v>
       </c>
       <c r="J16">
-        <v>0.9989080758571928</v>
+        <v>1.001037484658535</v>
       </c>
       <c r="K16">
-        <v>1.009486936385679</v>
+        <v>1.011153646959292</v>
       </c>
       <c r="L16">
-        <v>0.9958522376374822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9977212094452008</v>
+      </c>
+      <c r="N16">
+        <v>1.002459072707355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -901,31 +946,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9723934141198622</v>
+        <v>0.9746104819807123</v>
       </c>
       <c r="D17">
-        <v>0.9971588693261774</v>
+        <v>0.998851665603542</v>
       </c>
       <c r="E17">
-        <v>0.9835095267189911</v>
+        <v>0.9854088877003352</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034956866949186</v>
+        <v>1.035910483236209</v>
       </c>
       <c r="J17">
-        <v>1.000955428626044</v>
+        <v>1.003080561609275</v>
       </c>
       <c r="K17">
-        <v>1.011216897915932</v>
+        <v>1.012879859284054</v>
       </c>
       <c r="L17">
-        <v>0.9978130065274511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9996776819613222</v>
+      </c>
+      <c r="N17">
+        <v>1.004505051061709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -933,31 +981,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9740552204417858</v>
+        <v>0.9762677061968837</v>
       </c>
       <c r="D18">
-        <v>0.9983667551962656</v>
+        <v>1.000056847196784</v>
       </c>
       <c r="E18">
-        <v>0.9848582803546945</v>
+        <v>0.986754511520759</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035514156806463</v>
+        <v>1.036466539018269</v>
       </c>
       <c r="J18">
-        <v>1.002135537148407</v>
+        <v>1.004258275651402</v>
       </c>
       <c r="K18">
-        <v>1.012213740251717</v>
+        <v>1.013874599456206</v>
       </c>
       <c r="L18">
-        <v>0.9989436005089907</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.000805864510651</v>
+      </c>
+      <c r="N18">
+        <v>1.005684437592861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -965,31 +1016,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9746186419766729</v>
+        <v>0.9768295913404135</v>
       </c>
       <c r="D19">
-        <v>0.9987763760457227</v>
+        <v>1.000465561797667</v>
       </c>
       <c r="E19">
-        <v>0.9853157540045354</v>
+        <v>0.9872109359680554</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035702830441722</v>
+        <v>1.036654800286167</v>
       </c>
       <c r="J19">
-        <v>1.002535585432847</v>
+        <v>1.004657523768664</v>
       </c>
       <c r="K19">
-        <v>1.012551607273938</v>
+        <v>1.014211763565848</v>
       </c>
       <c r="L19">
-        <v>0.9993269300798049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.001188387327094</v>
+      </c>
+      <c r="N19">
+        <v>1.006084252688244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -997,31 +1051,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9720861958943077</v>
+        <v>0.9743041191563374</v>
       </c>
       <c r="D20">
-        <v>0.9969356150307466</v>
+        <v>0.9986289163882724</v>
       </c>
       <c r="E20">
-        <v>0.9832602742461297</v>
+        <v>0.985160219619721</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034853712187897</v>
+        <v>1.035807559537853</v>
       </c>
       <c r="J20">
-        <v>1.000737235100406</v>
+        <v>1.002862816399924</v>
       </c>
       <c r="K20">
-        <v>1.011032562824711</v>
+        <v>1.01269591756865</v>
       </c>
       <c r="L20">
-        <v>0.9976039996356879</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9994691261129302</v>
+      </c>
+      <c r="N20">
+        <v>1.004286996629185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1029,31 +1086,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9636196587548136</v>
+        <v>0.9658621975977962</v>
       </c>
       <c r="D21">
-        <v>0.9907892141580216</v>
+        <v>0.992497076660819</v>
       </c>
       <c r="E21">
-        <v>0.9764024679513111</v>
+        <v>0.9783192418755308</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031996137681355</v>
+        <v>1.032956715523897</v>
       </c>
       <c r="J21">
-        <v>0.9947213049577321</v>
+        <v>0.9968599470064979</v>
       </c>
       <c r="K21">
-        <v>1.005947214397327</v>
+        <v>1.007622002200808</v>
       </c>
       <c r="L21">
-        <v>0.9918451316071825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9937233431238255</v>
+      </c>
+      <c r="N21">
+        <v>0.9982756024726812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1061,31 +1121,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9581039104433247</v>
+        <v>0.960363601063088</v>
       </c>
       <c r="D22">
-        <v>0.9867918950320782</v>
+        <v>0.988509926821004</v>
       </c>
       <c r="E22">
-        <v>0.9719464994126437</v>
+        <v>0.9738750086164731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030120532639129</v>
+        <v>1.03108587882015</v>
       </c>
       <c r="J22">
-        <v>0.9907998252695595</v>
+        <v>0.9929477278783294</v>
       </c>
       <c r="K22">
-        <v>1.002629627882226</v>
+        <v>1.004312493228432</v>
       </c>
       <c r="L22">
-        <v>0.9880949672433741</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9899824008925051</v>
+      </c>
+      <c r="N22">
+        <v>0.9943578275446129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1093,31 +1156,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9610470970564444</v>
+        <v>0.9632975233416764</v>
       </c>
       <c r="D23">
-        <v>0.9889241380230129</v>
+        <v>0.9906366750926753</v>
       </c>
       <c r="E23">
-        <v>0.9743230362310461</v>
+        <v>0.9762452060695055</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031122621797005</v>
+        <v>1.032085385360094</v>
       </c>
       <c r="J23">
-        <v>0.9928924869560272</v>
+        <v>0.9950353728009745</v>
       </c>
       <c r="K23">
-        <v>1.004400267452038</v>
+        <v>1.006078759695998</v>
       </c>
       <c r="L23">
-        <v>0.9900958519709355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9919782948049898</v>
+      </c>
+      <c r="N23">
+        <v>0.9964484371625045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1125,31 +1191,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9722250742409595</v>
+        <v>0.9744426104957179</v>
       </c>
       <c r="D24">
-        <v>0.997036535527137</v>
+        <v>0.9987296083633894</v>
       </c>
       <c r="E24">
-        <v>0.9833729455648986</v>
+        <v>0.9852726265391077</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034900348324296</v>
+        <v>1.035854091108951</v>
       </c>
       <c r="J24">
-        <v>1.000835870738344</v>
+        <v>1.002961249157039</v>
       </c>
       <c r="K24">
-        <v>1.011115893558352</v>
+        <v>1.012779070292313</v>
       </c>
       <c r="L24">
-        <v>0.9976984811831791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9995634035625862</v>
+      </c>
+      <c r="N24">
+        <v>1.004385569172105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1157,28 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9844436245662154</v>
+        <v>0.986629146973419</v>
       </c>
       <c r="D25">
-        <v>1.005926699261632</v>
+        <v>1.007600931903279</v>
       </c>
       <c r="E25">
-        <v>0.9933086871446025</v>
+        <v>0.9951865266071425</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038969089111818</v>
+        <v>1.039914354503652</v>
       </c>
       <c r="J25">
-        <v>1.009506109002212</v>
+        <v>1.011615027213351</v>
       </c>
       <c r="K25">
-        <v>1.018433702311589</v>
+        <v>1.020082388063861</v>
       </c>
       <c r="L25">
-        <v>1.006011772891956</v>
+        <v>1.007860027968225</v>
+      </c>
+      <c r="N25">
+        <v>1.013051636585859</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9958265979193826</v>
+        <v>0.9909685166531298</v>
       </c>
       <c r="D2">
-        <v>1.014308511432501</v>
+        <v>1.010644792608837</v>
       </c>
       <c r="E2">
-        <v>1.002698546935673</v>
+        <v>0.9961796490585558</v>
+      </c>
+      <c r="F2">
+        <v>0.9642843141175372</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042927137082182</v>
+        <v>1.038787755948738</v>
       </c>
       <c r="J2">
-        <v>1.018132855306441</v>
+        <v>1.013422754780656</v>
       </c>
       <c r="K2">
-        <v>1.025572041077054</v>
+        <v>1.021957794094888</v>
       </c>
       <c r="L2">
-        <v>1.014120414303321</v>
+        <v>1.007692465283522</v>
+      </c>
+      <c r="M2">
+        <v>0.97626471743776</v>
       </c>
       <c r="N2">
-        <v>1.019578720742447</v>
+        <v>1.014861931333659</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002235561507183</v>
+        <v>0.9997874570326106</v>
       </c>
       <c r="D3">
-        <v>1.018987152487128</v>
+        <v>1.017670685871639</v>
       </c>
       <c r="E3">
-        <v>1.007948371313824</v>
+        <v>1.003832848318789</v>
+      </c>
+      <c r="F3">
+        <v>0.9785956071155605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044995227746053</v>
+        <v>1.042671601873592</v>
       </c>
       <c r="J3">
-        <v>1.022665467834053</v>
+        <v>1.02028391786113</v>
       </c>
       <c r="K3">
-        <v>1.029382719193099</v>
+        <v>1.028082351288406</v>
       </c>
       <c r="L3">
-        <v>1.018480551464523</v>
+        <v>1.014416920922157</v>
+      </c>
+      <c r="M3">
+        <v>0.9895098905370278</v>
       </c>
       <c r="N3">
-        <v>1.024117770099746</v>
+        <v>1.021732838052694</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006267850741868</v>
+        <v>1.005265936902883</v>
       </c>
       <c r="D4">
-        <v>1.021932238729809</v>
+        <v>1.022034630170837</v>
       </c>
       <c r="E4">
-        <v>1.01125789494792</v>
+        <v>1.008586757505553</v>
+      </c>
+      <c r="F4">
+        <v>0.9873739079633426</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046281470179246</v>
+        <v>1.045059457058155</v>
       </c>
       <c r="J4">
-        <v>1.025512571919326</v>
+        <v>1.024535891990858</v>
       </c>
       <c r="K4">
-        <v>1.031772975490979</v>
+        <v>1.03187419592035</v>
       </c>
       <c r="L4">
-        <v>1.021222319702153</v>
+        <v>1.018582640949765</v>
+      </c>
+      <c r="M4">
+        <v>0.9976271459282799</v>
       </c>
       <c r="N4">
-        <v>1.026968917399387</v>
+        <v>1.025990850473395</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007936893416952</v>
+        <v>1.007518664203703</v>
       </c>
       <c r="D5">
-        <v>1.023151517811124</v>
+        <v>1.023828870671367</v>
       </c>
       <c r="E5">
-        <v>1.012629260610423</v>
+        <v>1.010541368659404</v>
+      </c>
+      <c r="F5">
+        <v>0.9909604135711725</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046810221917228</v>
+        <v>1.046035563719431</v>
       </c>
       <c r="J5">
-        <v>1.026689866766945</v>
+        <v>1.02628183019716</v>
       </c>
       <c r="K5">
-        <v>1.03276052626747</v>
+        <v>1.033430353153064</v>
       </c>
       <c r="L5">
-        <v>1.022356775044898</v>
+        <v>1.020292759905992</v>
+      </c>
+      <c r="M5">
+        <v>1.000941803141627</v>
       </c>
       <c r="N5">
-        <v>1.028147884140727</v>
+        <v>1.027739268112212</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008215637699132</v>
+        <v>1.007894060853119</v>
       </c>
       <c r="D6">
-        <v>1.023355159754741</v>
+        <v>1.024127852056424</v>
       </c>
       <c r="E6">
-        <v>1.012858375808088</v>
+        <v>1.010867074361382</v>
+      </c>
+      <c r="F6">
+        <v>0.9915568115186764</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046898311420547</v>
+        <v>1.046197888500836</v>
       </c>
       <c r="J6">
-        <v>1.026886414084473</v>
+        <v>1.026572630855491</v>
       </c>
       <c r="K6">
-        <v>1.032925346323105</v>
+        <v>1.033689495292379</v>
       </c>
       <c r="L6">
-        <v>1.022546212513809</v>
+        <v>1.020577570058508</v>
+      </c>
+      <c r="M6">
+        <v>1.001492889836339</v>
       </c>
       <c r="N6">
-        <v>1.028344710577992</v>
+        <v>1.028030481740832</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006290253555808</v>
+        <v>1.005296231004251</v>
       </c>
       <c r="D7">
-        <v>1.021948603701401</v>
+        <v>1.022058759481471</v>
       </c>
       <c r="E7">
-        <v>1.011276296378636</v>
+        <v>1.008613043417252</v>
+      </c>
+      <c r="F7">
+        <v>0.9874222254274846</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046288581902459</v>
+        <v>1.045072606145367</v>
       </c>
       <c r="J7">
-        <v>1.025528378955393</v>
+        <v>1.024559380645131</v>
       </c>
       <c r="K7">
-        <v>1.031786238251271</v>
+        <v>1.031895134704459</v>
       </c>
       <c r="L7">
-        <v>1.021237548713691</v>
+        <v>1.018605649350882</v>
+      </c>
+      <c r="M7">
+        <v>0.9976718081524104</v>
       </c>
       <c r="N7">
-        <v>1.026984746883259</v>
+        <v>1.026014372484251</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.998017131626795</v>
+        <v>0.993998797901904</v>
       </c>
       <c r="D8">
-        <v>1.015907266062274</v>
+        <v>1.013059085056562</v>
       </c>
       <c r="E8">
-        <v>1.004491473097284</v>
+        <v>0.9988093993552346</v>
+      </c>
+      <c r="F8">
+        <v>0.9692282712368816</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043637097919374</v>
+        <v>1.04012770737444</v>
       </c>
       <c r="J8">
-        <v>1.019683009452379</v>
+        <v>1.015782526127413</v>
       </c>
       <c r="K8">
-        <v>1.02687598966409</v>
+        <v>1.02406502124589</v>
       </c>
       <c r="L8">
-        <v>1.015610946315269</v>
+        <v>1.010005522272318</v>
+      </c>
+      <c r="M8">
+        <v>0.980841854108102</v>
       </c>
       <c r="N8">
-        <v>1.021131076285078</v>
+        <v>1.017225053826398</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9824943416360234</v>
+        <v>0.9721235676844802</v>
       </c>
       <c r="D9">
-        <v>1.004588661784026</v>
+        <v>0.9956286581913519</v>
       </c>
       <c r="E9">
-        <v>0.9918177847935061</v>
+        <v>0.9798278113045386</v>
+      </c>
+      <c r="F9">
+        <v>0.9328267820775894</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038544739252876</v>
+        <v>1.030333171460414</v>
       </c>
       <c r="J9">
-        <v>1.008680783720424</v>
+        <v>0.9987006308872396</v>
       </c>
       <c r="K9">
-        <v>1.01760772727996</v>
+        <v>1.008793057755923</v>
       </c>
       <c r="L9">
-        <v>1.005045022483903</v>
+        <v>0.993256872515539</v>
+      </c>
+      <c r="M9">
+        <v>0.9471126026857409</v>
       </c>
       <c r="N9">
-        <v>1.01011322613061</v>
+        <v>1.000118900335663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.971408893609754</v>
+        <v>0.9558307969678976</v>
       </c>
       <c r="D10">
-        <v>0.9965246064979585</v>
+        <v>0.9826433806696551</v>
       </c>
       <c r="E10">
-        <v>0.9828116259210972</v>
+        <v>0.9656985497246017</v>
+      </c>
+      <c r="F10">
+        <v>0.9044237673655621</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034832980161004</v>
+        <v>1.022859464893538</v>
       </c>
       <c r="J10">
-        <v>1.0008046676405</v>
+        <v>0.9859134815687359</v>
       </c>
       <c r="K10">
-        <v>1.010956895052299</v>
+        <v>0.9973332487139781</v>
       </c>
       <c r="L10">
-        <v>0.9974983150860677</v>
+        <v>0.9807160332446923</v>
+      </c>
+      <c r="M10">
+        <v>0.9207634267745567</v>
       </c>
       <c r="N10">
-        <v>1.002225925062449</v>
+        <v>0.9873135917984207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9664078374350819</v>
+        <v>0.9482518275876376</v>
       </c>
       <c r="D11">
-        <v>0.9928930349392682</v>
+        <v>0.9766012922976435</v>
       </c>
       <c r="E11">
-        <v>0.9787607543539293</v>
+        <v>0.9591300159249314</v>
+      </c>
+      <c r="F11">
+        <v>0.8907307688344003</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033141794210032</v>
+        <v>1.019330225382467</v>
       </c>
       <c r="J11">
-        <v>0.997248083433279</v>
+        <v>0.9799479227818588</v>
       </c>
       <c r="K11">
-        <v>1.007950234394566</v>
+        <v>0.9919783887396008</v>
       </c>
       <c r="L11">
-        <v>0.9940946434713193</v>
+        <v>0.9748661525218349</v>
+      </c>
+      <c r="M11">
+        <v>0.9080562517432598</v>
       </c>
       <c r="N11">
-        <v>0.9986642900977082</v>
+        <v>0.9813395612338066</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9645174952858707</v>
+        <v>0.9453441907454139</v>
       </c>
       <c r="D12">
-        <v>0.9915214863881693</v>
+        <v>0.9742828064547577</v>
       </c>
       <c r="E12">
-        <v>0.9772315411007699</v>
+        <v>0.9566108393894208</v>
+      </c>
+      <c r="F12">
+        <v>0.8853827068090908</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032500147366954</v>
+        <v>1.017966993391169</v>
       </c>
       <c r="J12">
-        <v>0.9959033340141932</v>
+        <v>0.9776563719541158</v>
       </c>
       <c r="K12">
-        <v>1.006812944183475</v>
+        <v>0.9899198685344064</v>
       </c>
       <c r="L12">
-        <v>0.9928083469695437</v>
+        <v>0.9726193497978564</v>
+      </c>
+      <c r="M12">
+        <v>0.9030929875313051</v>
       </c>
       <c r="N12">
-        <v>0.9973176309802021</v>
+        <v>0.9790447561410439</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9649245049148983</v>
+        <v>0.9459723392964009</v>
       </c>
       <c r="D13">
-        <v>0.9918167398606159</v>
+        <v>0.9747837046414306</v>
       </c>
       <c r="E13">
-        <v>0.9775607046363513</v>
+        <v>0.9571550271451383</v>
+      </c>
+      <c r="F13">
+        <v>0.8865428046163978</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032638406801089</v>
+        <v>1.018261942582906</v>
       </c>
       <c r="J13">
-        <v>0.9961928883612499</v>
+        <v>0.9781515615092801</v>
       </c>
       <c r="K13">
-        <v>1.007057848419122</v>
+        <v>0.9903647775425226</v>
       </c>
       <c r="L13">
-        <v>0.9930852861851087</v>
+        <v>0.9731048514522843</v>
+      </c>
+      <c r="M13">
+        <v>0.9041696172833145</v>
       </c>
       <c r="N13">
-        <v>0.9976075965276442</v>
+        <v>0.9795406489221755</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9662522644650897</v>
+        <v>0.9480134620042973</v>
       </c>
       <c r="D14">
-        <v>0.9927801337849518</v>
+        <v>0.9764112360557001</v>
       </c>
       <c r="E14">
-        <v>0.9786348610198224</v>
+        <v>0.9589234783282267</v>
+      </c>
+      <c r="F14">
+        <v>0.8902944156382481</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033089035416537</v>
+        <v>1.019218665351409</v>
       </c>
       <c r="J14">
-        <v>0.9971374196082321</v>
+        <v>0.9797601239767522</v>
       </c>
       <c r="K14">
-        <v>1.007856652317709</v>
+        <v>0.991809720861407</v>
       </c>
       <c r="L14">
-        <v>0.9939887769481837</v>
+        <v>0.9746820132209048</v>
+      </c>
+      <c r="M14">
+        <v>0.9076512962755657</v>
       </c>
       <c r="N14">
-        <v>0.9985534691173364</v>
+        <v>0.9811514957328562</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9670659236057517</v>
+        <v>0.9492583315507757</v>
       </c>
       <c r="D15">
-        <v>0.9933706635260953</v>
+        <v>0.9774037884641402</v>
       </c>
       <c r="E15">
-        <v>0.9792933742886968</v>
+        <v>0.9600021595855995</v>
+      </c>
+      <c r="F15">
+        <v>0.8925692920663268</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033364871300315</v>
+        <v>1.019800906722021</v>
       </c>
       <c r="J15">
-        <v>0.9977161846511592</v>
+        <v>0.9807407884648934</v>
       </c>
       <c r="K15">
-        <v>1.008346062086058</v>
+        <v>0.992690420953238</v>
       </c>
       <c r="L15">
-        <v>0.9945424783428897</v>
+        <v>0.9756435821802133</v>
+      </c>
+      <c r="M15">
+        <v>0.9097624777860398</v>
       </c>
       <c r="N15">
-        <v>0.9991330560730095</v>
+        <v>0.9821335528770543</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9717363531341889</v>
+        <v>0.9563216620452867</v>
       </c>
       <c r="D16">
-        <v>0.9967625425883728</v>
+        <v>0.9830346583368994</v>
       </c>
       <c r="E16">
-        <v>0.9830771327175315</v>
+        <v>0.9661240709898157</v>
+      </c>
+      <c r="F16">
+        <v>0.9052991118201563</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03494337906032</v>
+        <v>1.02308686615432</v>
       </c>
       <c r="J16">
-        <v>1.001037484658535</v>
+        <v>0.9862994764618935</v>
       </c>
       <c r="K16">
-        <v>1.011153646959292</v>
+        <v>0.9976795345187731</v>
       </c>
       <c r="L16">
-        <v>0.9977212094452008</v>
+        <v>0.9810945736882215</v>
+      </c>
+      <c r="M16">
+        <v>0.9215756945307924</v>
       </c>
       <c r="N16">
-        <v>1.002459072707355</v>
+        <v>0.9877001348486002</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9746104819807123</v>
+        <v>0.9606034546041502</v>
       </c>
       <c r="D17">
-        <v>0.998851665603542</v>
+        <v>0.9864475600940407</v>
       </c>
       <c r="E17">
-        <v>0.9854088877003352</v>
+        <v>0.9698363413988502</v>
+      </c>
+      <c r="F17">
+        <v>0.9128795863120415</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035910483236209</v>
+        <v>1.025064526043256</v>
       </c>
       <c r="J17">
-        <v>1.003080561609275</v>
+        <v>0.9896645494829532</v>
       </c>
       <c r="K17">
-        <v>1.012879859284054</v>
+        <v>1.000697459936128</v>
       </c>
       <c r="L17">
-        <v>0.9996776819613222</v>
+        <v>0.9843947596829824</v>
+      </c>
+      <c r="M17">
+        <v>0.9286094859852234</v>
       </c>
       <c r="N17">
-        <v>1.004505051061709</v>
+        <v>0.9910699866593297</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9762677061968837</v>
+        <v>0.9630514813250838</v>
       </c>
       <c r="D18">
-        <v>1.000056847196784</v>
+        <v>0.9883986807887171</v>
       </c>
       <c r="E18">
-        <v>0.986754511520759</v>
+        <v>0.9719591130728396</v>
+      </c>
+      <c r="F18">
+        <v>0.917170953546396</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036466539018269</v>
+        <v>1.0261904550301</v>
       </c>
       <c r="J18">
-        <v>1.004258275651402</v>
+        <v>0.9915868858438686</v>
       </c>
       <c r="K18">
-        <v>1.013874599456206</v>
+        <v>1.002420718716382</v>
       </c>
       <c r="L18">
-        <v>1.000805864510651</v>
+        <v>0.9862800839305567</v>
+      </c>
+      <c r="M18">
+        <v>0.9325909495265046</v>
       </c>
       <c r="N18">
-        <v>1.005684437592861</v>
+        <v>0.9929950529583723</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9768295913404135</v>
+        <v>0.9638781603762755</v>
       </c>
       <c r="D19">
-        <v>1.000465561797667</v>
+        <v>0.989057539569396</v>
       </c>
       <c r="E19">
-        <v>0.9872109359680554</v>
+        <v>0.9726760112243472</v>
+      </c>
+      <c r="F19">
+        <v>0.9186134091906916</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036654800286167</v>
+        <v>1.026569896036493</v>
       </c>
       <c r="J19">
-        <v>1.004657523768664</v>
+        <v>0.9922357826028882</v>
       </c>
       <c r="K19">
-        <v>1.014211763565848</v>
+        <v>1.003002291878992</v>
       </c>
       <c r="L19">
-        <v>1.001188387327094</v>
+        <v>0.9869164918118397</v>
+      </c>
+      <c r="M19">
+        <v>0.9339291563227666</v>
       </c>
       <c r="N19">
-        <v>1.006084252688244</v>
+        <v>0.9936448712252193</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9743041191563374</v>
+        <v>0.9601492626388909</v>
       </c>
       <c r="D20">
-        <v>0.9986289163882724</v>
+        <v>0.9860855510371298</v>
       </c>
       <c r="E20">
-        <v>0.985160219619721</v>
+        <v>0.9694425229986408</v>
+      </c>
+      <c r="F20">
+        <v>0.9120800577150594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035807559537853</v>
+        <v>1.024855248908039</v>
       </c>
       <c r="J20">
-        <v>1.002862816399924</v>
+        <v>0.9893077644412713</v>
       </c>
       <c r="K20">
-        <v>1.01269591756865</v>
+        <v>1.00037756290265</v>
       </c>
       <c r="L20">
-        <v>0.9994691261129302</v>
+        <v>0.9840448474381706</v>
+      </c>
+      <c r="M20">
+        <v>0.9278676589955621</v>
       </c>
       <c r="N20">
-        <v>1.004286996629185</v>
+        <v>0.9907126949419643</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9658621975977962</v>
+        <v>0.9474150858853423</v>
       </c>
       <c r="D21">
-        <v>0.992497076660819</v>
+        <v>0.975934123793703</v>
       </c>
       <c r="E21">
-        <v>0.9783192418755308</v>
+        <v>0.9584050146874764</v>
+      </c>
+      <c r="F21">
+        <v>0.8891974131322247</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032956715523897</v>
+        <v>1.018938459059896</v>
       </c>
       <c r="J21">
-        <v>0.9968599470064979</v>
+        <v>0.979288639539537</v>
       </c>
       <c r="K21">
-        <v>1.007622002200808</v>
+        <v>0.991386240104485</v>
       </c>
       <c r="L21">
-        <v>0.9937233431238255</v>
+        <v>0.9742197220919758</v>
+      </c>
+      <c r="M21">
+        <v>0.9066332263910074</v>
       </c>
       <c r="N21">
-        <v>0.9982756024726812</v>
+        <v>0.9806793417336602</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.960363601063088</v>
+        <v>0.9388633495974912</v>
       </c>
       <c r="D22">
-        <v>0.988509926821004</v>
+        <v>0.9691138424193988</v>
       </c>
       <c r="E22">
-        <v>0.9738750086164731</v>
+        <v>0.9509976018748114</v>
+      </c>
+      <c r="F22">
+        <v>0.8732514543195136</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03108587882015</v>
+        <v>1.014909195350299</v>
       </c>
       <c r="J22">
-        <v>0.9929477278783294</v>
+        <v>0.9725428722820597</v>
       </c>
       <c r="K22">
-        <v>1.004312493228432</v>
+        <v>0.9853230365362902</v>
       </c>
       <c r="L22">
-        <v>0.9899824008925051</v>
+        <v>0.9676065872306843</v>
+      </c>
+      <c r="M22">
+        <v>0.8918347933424708</v>
       </c>
       <c r="N22">
-        <v>0.9943578275446129</v>
+        <v>0.9739239947129269</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9632975233416764</v>
+        <v>0.9434542494909637</v>
       </c>
       <c r="D23">
-        <v>0.9906366750926753</v>
+        <v>0.9727756338854981</v>
       </c>
       <c r="E23">
-        <v>0.9762452060695055</v>
+        <v>0.9549736516143652</v>
+      </c>
+      <c r="F23">
+        <v>0.8818760306876029</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032085385360094</v>
+        <v>1.017078068077</v>
       </c>
       <c r="J23">
-        <v>0.9950353728009745</v>
+        <v>0.9761660147503144</v>
       </c>
       <c r="K23">
-        <v>1.006078759695998</v>
+        <v>0.9885805817379999</v>
       </c>
       <c r="L23">
-        <v>0.9919782948049898</v>
+        <v>0.9711582160605308</v>
+      </c>
+      <c r="M23">
+        <v>0.8998386220819945</v>
       </c>
       <c r="N23">
-        <v>0.9964484371625045</v>
+        <v>0.9775522824590669</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9744426104957179</v>
+        <v>0.9603546443256438</v>
       </c>
       <c r="D24">
-        <v>0.9987296083633894</v>
+        <v>0.9862492488177719</v>
       </c>
       <c r="E24">
-        <v>0.9852726265391077</v>
+        <v>0.9696206031811294</v>
+      </c>
+      <c r="F24">
+        <v>0.9124417289112328</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035854091108951</v>
+        <v>1.024949896956812</v>
       </c>
       <c r="J24">
-        <v>1.002961249157039</v>
+        <v>0.9894691044462812</v>
       </c>
       <c r="K24">
-        <v>1.012779070292313</v>
+        <v>1.000522224331476</v>
       </c>
       <c r="L24">
-        <v>0.9995634035625862</v>
+        <v>0.9842030793703981</v>
+      </c>
+      <c r="M24">
+        <v>0.9282032298975429</v>
       </c>
       <c r="N24">
-        <v>1.004385569172105</v>
+        <v>0.9908742640682879</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.986629146973419</v>
+        <v>0.9780469975601426</v>
       </c>
       <c r="D25">
-        <v>1.007600931903279</v>
+        <v>1.00034891012452</v>
       </c>
       <c r="E25">
-        <v>0.9951865266071425</v>
+        <v>0.9849668815297199</v>
+      </c>
+      <c r="F25">
+        <v>0.9428575153940995</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039914354503652</v>
+        <v>1.033012785516965</v>
       </c>
       <c r="J25">
-        <v>1.011615027213351</v>
+        <v>1.003336447382217</v>
       </c>
       <c r="K25">
-        <v>1.020082388063861</v>
+        <v>1.012941812126263</v>
       </c>
       <c r="L25">
-        <v>1.007860027968225</v>
+        <v>0.9978031379914755</v>
+      </c>
+      <c r="M25">
+        <v>0.9564127790357388</v>
       </c>
       <c r="N25">
-        <v>1.013051636585859</v>
+        <v>1.004761300221799</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9909685166531298</v>
+        <v>1.007784084153049</v>
       </c>
       <c r="D2">
-        <v>1.010644792608837</v>
+        <v>1.024877983468726</v>
       </c>
       <c r="E2">
-        <v>0.9961796490585558</v>
-      </c>
-      <c r="F2">
-        <v>0.9642843141175372</v>
+        <v>1.013217270397126</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038787755948738</v>
+        <v>1.047923034502341</v>
       </c>
       <c r="J2">
-        <v>1.013422754780656</v>
+        <v>1.029734441389677</v>
       </c>
       <c r="K2">
-        <v>1.021957794094888</v>
+        <v>1.036001275977849</v>
       </c>
       <c r="L2">
-        <v>1.007692465283522</v>
-      </c>
-      <c r="M2">
-        <v>0.97626471743776</v>
+        <v>1.024495488227872</v>
       </c>
       <c r="N2">
-        <v>1.014861931333659</v>
+        <v>1.031196782408647</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9997874570326106</v>
+        <v>1.01165434702855</v>
       </c>
       <c r="D3">
-        <v>1.017670685871639</v>
+        <v>1.027738571513604</v>
       </c>
       <c r="E3">
-        <v>1.003832848318789</v>
-      </c>
-      <c r="F3">
-        <v>0.9785956071155605</v>
+        <v>1.01626202146505</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042671601873592</v>
+        <v>1.049137379121275</v>
       </c>
       <c r="J3">
-        <v>1.02028391786113</v>
+        <v>1.031832267293768</v>
       </c>
       <c r="K3">
-        <v>1.028082351288406</v>
+        <v>1.038028419947278</v>
       </c>
       <c r="L3">
-        <v>1.014416920922157</v>
-      </c>
-      <c r="M3">
-        <v>0.9895098905370278</v>
+        <v>1.026690970517399</v>
       </c>
       <c r="N3">
-        <v>1.021732838052694</v>
+        <v>1.03329758746614</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005265936902883</v>
+        <v>1.014110274045104</v>
       </c>
       <c r="D4">
-        <v>1.022034630170837</v>
+        <v>1.029555191803889</v>
       </c>
       <c r="E4">
-        <v>1.008586757505553</v>
-      </c>
-      <c r="F4">
-        <v>0.9873739079633426</v>
+        <v>1.018199730566883</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045059457058155</v>
+        <v>1.049897050832653</v>
       </c>
       <c r="J4">
-        <v>1.024535891990858</v>
+        <v>1.033159797272088</v>
       </c>
       <c r="K4">
-        <v>1.03187419592035</v>
+        <v>1.039309532180356</v>
       </c>
       <c r="L4">
-        <v>1.018582640949765</v>
-      </c>
-      <c r="M4">
-        <v>0.9976271459282799</v>
+        <v>1.028083353171864</v>
       </c>
       <c r="N4">
-        <v>1.025990850473395</v>
+        <v>1.034627002689299</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007518664203703</v>
+        <v>1.015131506336736</v>
       </c>
       <c r="D5">
-        <v>1.023828870671367</v>
+        <v>1.030310878086624</v>
       </c>
       <c r="E5">
-        <v>1.010541368659404</v>
-      </c>
-      <c r="F5">
-        <v>0.9909604135711725</v>
+        <v>1.019006791462307</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046035563719431</v>
+        <v>1.050210283512716</v>
       </c>
       <c r="J5">
-        <v>1.02628183019716</v>
+        <v>1.033710904495364</v>
       </c>
       <c r="K5">
-        <v>1.033430353153064</v>
+        <v>1.039840954435066</v>
       </c>
       <c r="L5">
-        <v>1.020292759905992</v>
-      </c>
-      <c r="M5">
-        <v>1.000941803141627</v>
+        <v>1.028662119738026</v>
       </c>
       <c r="N5">
-        <v>1.027739268112212</v>
+        <v>1.035178892548045</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007894060853119</v>
+        <v>1.015302326415131</v>
       </c>
       <c r="D6">
-        <v>1.024127852056424</v>
+        <v>1.030437296665189</v>
       </c>
       <c r="E6">
-        <v>1.010867074361382</v>
-      </c>
-      <c r="F6">
-        <v>0.9915568115186764</v>
+        <v>1.019141863803729</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046197888500836</v>
+        <v>1.050262520180425</v>
       </c>
       <c r="J6">
-        <v>1.026572630855491</v>
+        <v>1.033803033015748</v>
       </c>
       <c r="K6">
-        <v>1.033689495292379</v>
+        <v>1.039929767519372</v>
       </c>
       <c r="L6">
-        <v>1.020577570058508</v>
-      </c>
-      <c r="M6">
-        <v>1.001492889836339</v>
+        <v>1.028758915489032</v>
       </c>
       <c r="N6">
-        <v>1.028030481740832</v>
+        <v>1.035271151901496</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005296231004251</v>
+        <v>1.014123963516693</v>
       </c>
       <c r="D7">
-        <v>1.022058759481471</v>
+        <v>1.029565320567986</v>
       </c>
       <c r="E7">
-        <v>1.008613043417252</v>
-      </c>
-      <c r="F7">
-        <v>0.9874222254274846</v>
+        <v>1.01821054394766</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045072606145367</v>
+        <v>1.049901260216443</v>
       </c>
       <c r="J7">
-        <v>1.024559380645131</v>
+        <v>1.033167188421676</v>
       </c>
       <c r="K7">
-        <v>1.031895134704459</v>
+        <v>1.039316660980069</v>
       </c>
       <c r="L7">
-        <v>1.018605649350882</v>
-      </c>
-      <c r="M7">
-        <v>0.9976718081524104</v>
+        <v>1.028091112357195</v>
       </c>
       <c r="N7">
-        <v>1.026014372484251</v>
+        <v>1.034634404335168</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.993998797901904</v>
+        <v>1.009102290523669</v>
       </c>
       <c r="D8">
-        <v>1.013059085056562</v>
+        <v>1.025851977349101</v>
       </c>
       <c r="E8">
-        <v>0.9988093993552346</v>
-      </c>
-      <c r="F8">
-        <v>0.9692282712368816</v>
+        <v>1.014253110031942</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04012770737444</v>
+        <v>1.048338899761182</v>
       </c>
       <c r="J8">
-        <v>1.015782526127413</v>
+        <v>1.030449709624883</v>
       </c>
       <c r="K8">
-        <v>1.02406502124589</v>
+        <v>1.036692793343984</v>
       </c>
       <c r="L8">
-        <v>1.010005522272318</v>
-      </c>
-      <c r="M8">
-        <v>0.980841854108102</v>
+        <v>1.025243413947784</v>
       </c>
       <c r="N8">
-        <v>1.017225053826398</v>
+        <v>1.031913066406784</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9721235676844802</v>
+        <v>0.9998665137080024</v>
       </c>
       <c r="D9">
-        <v>0.9956286581913519</v>
+        <v>1.019035559036179</v>
       </c>
       <c r="E9">
-        <v>0.9798278113045386</v>
-      </c>
-      <c r="F9">
-        <v>0.9328267820775894</v>
+        <v>1.007020911318012</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030333171460414</v>
+        <v>1.045380658249631</v>
       </c>
       <c r="J9">
-        <v>0.9987006308872396</v>
+        <v>1.025423986600956</v>
       </c>
       <c r="K9">
-        <v>1.008793057755923</v>
+        <v>1.031827166609921</v>
       </c>
       <c r="L9">
-        <v>0.993256872515539</v>
-      </c>
-      <c r="M9">
-        <v>0.9471126026857409</v>
+        <v>1.020001096971423</v>
       </c>
       <c r="N9">
-        <v>1.000118900335663</v>
+        <v>1.026880206279705</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9558307969678976</v>
+        <v>0.9934250813252596</v>
       </c>
       <c r="D10">
-        <v>0.9826433806696551</v>
+        <v>1.014293299541842</v>
       </c>
       <c r="E10">
-        <v>0.9656985497246017</v>
-      </c>
-      <c r="F10">
-        <v>0.9044237673655621</v>
+        <v>1.002010548255793</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022859464893538</v>
+        <v>1.043262657988421</v>
       </c>
       <c r="J10">
-        <v>0.9859134815687359</v>
+        <v>1.02190201312023</v>
       </c>
       <c r="K10">
-        <v>0.9973332487139781</v>
+        <v>1.028409192130866</v>
       </c>
       <c r="L10">
-        <v>0.9807160332446923</v>
-      </c>
-      <c r="M10">
-        <v>0.9207634267745567</v>
+        <v>1.016343596271812</v>
       </c>
       <c r="N10">
-        <v>0.9873135917984207</v>
+        <v>1.02335323119266</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9482518275876376</v>
+        <v>0.9905626875975316</v>
       </c>
       <c r="D11">
-        <v>0.9766012922976435</v>
+        <v>1.012189455903824</v>
       </c>
       <c r="E11">
-        <v>0.9591300159249314</v>
-      </c>
-      <c r="F11">
-        <v>0.8907307688344003</v>
+        <v>0.9997926387779429</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019330225382467</v>
+        <v>1.042309055720318</v>
       </c>
       <c r="J11">
-        <v>0.9799479227818588</v>
+        <v>1.020333409069154</v>
       </c>
       <c r="K11">
-        <v>0.9919783887396008</v>
+        <v>1.026885100734125</v>
       </c>
       <c r="L11">
-        <v>0.9748661525218349</v>
-      </c>
-      <c r="M11">
-        <v>0.9080562517432598</v>
+        <v>1.014718466687585</v>
       </c>
       <c r="N11">
-        <v>0.9813395612338066</v>
+        <v>1.02178239954391</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9453441907454139</v>
+        <v>0.9894879429829238</v>
       </c>
       <c r="D12">
-        <v>0.9742828064547577</v>
+        <v>1.011400108599963</v>
       </c>
       <c r="E12">
-        <v>0.9566108393894208</v>
-      </c>
-      <c r="F12">
-        <v>0.8853827068090908</v>
+        <v>0.9989612151711885</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017966993391169</v>
+        <v>1.041949189752397</v>
       </c>
       <c r="J12">
-        <v>0.9776563719541158</v>
+        <v>1.019743952559542</v>
       </c>
       <c r="K12">
-        <v>0.9899198685344064</v>
+        <v>1.026312111793591</v>
       </c>
       <c r="L12">
-        <v>0.9726193497978564</v>
-      </c>
-      <c r="M12">
-        <v>0.9030929875313051</v>
+        <v>1.014108343755395</v>
       </c>
       <c r="N12">
-        <v>0.9790447561410439</v>
+        <v>1.021192105938442</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9459723392964009</v>
+        <v>0.9897190096275645</v>
       </c>
       <c r="D13">
-        <v>0.9747837046414306</v>
+        <v>1.011569788348552</v>
       </c>
       <c r="E13">
-        <v>0.9571550271451383</v>
-      </c>
-      <c r="F13">
-        <v>0.8865428046163978</v>
+        <v>0.9991399073668359</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018261942582906</v>
+        <v>1.042026641043275</v>
       </c>
       <c r="J13">
-        <v>0.9781515615092801</v>
+        <v>1.019870705395221</v>
       </c>
       <c r="K13">
-        <v>0.9903647775425226</v>
+        <v>1.026435335089545</v>
       </c>
       <c r="L13">
-        <v>0.9731048514522843</v>
-      </c>
-      <c r="M13">
-        <v>0.9041696172833145</v>
+        <v>1.014239514598296</v>
       </c>
       <c r="N13">
-        <v>0.9795406489221755</v>
+        <v>1.021319038777687</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9480134620042973</v>
+        <v>0.9904740871103964</v>
       </c>
       <c r="D14">
-        <v>0.9764112360557001</v>
+        <v>1.012124370951222</v>
       </c>
       <c r="E14">
-        <v>0.9589234783282267</v>
-      </c>
-      <c r="F14">
-        <v>0.8902944156382481</v>
+        <v>0.9997240698789858</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019218665351409</v>
+        <v>1.042279425496192</v>
       </c>
       <c r="J14">
-        <v>0.9797601239767522</v>
+        <v>1.020284824842377</v>
       </c>
       <c r="K14">
-        <v>0.991809720861407</v>
+        <v>1.026837879006444</v>
       </c>
       <c r="L14">
-        <v>0.9746820132209048</v>
-      </c>
-      <c r="M14">
-        <v>0.9076512962755657</v>
+        <v>1.014668167409639</v>
       </c>
       <c r="N14">
-        <v>0.9811514957328562</v>
+        <v>1.021733746321958</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9492583315507757</v>
+        <v>0.9909377719632335</v>
       </c>
       <c r="D15">
-        <v>0.9774037884641402</v>
+        <v>1.012465012974841</v>
       </c>
       <c r="E15">
-        <v>0.9600021595855995</v>
-      </c>
-      <c r="F15">
-        <v>0.8925692920663268</v>
+        <v>1.000082975514877</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019800906722021</v>
+        <v>1.042434419570625</v>
       </c>
       <c r="J15">
-        <v>0.9807407884648934</v>
+        <v>1.020539067397316</v>
       </c>
       <c r="K15">
-        <v>0.992690420953238</v>
+        <v>1.02708498105634</v>
       </c>
       <c r="L15">
-        <v>0.9756435821802133</v>
-      </c>
-      <c r="M15">
-        <v>0.9097624777860398</v>
+        <v>1.014931408304854</v>
       </c>
       <c r="N15">
-        <v>0.9821335528770543</v>
+        <v>1.021988349930488</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9563216620452867</v>
+        <v>0.9936134624092571</v>
       </c>
       <c r="D16">
-        <v>0.9830346583368994</v>
+        <v>1.014431836330009</v>
       </c>
       <c r="E16">
-        <v>0.9661240709898157</v>
-      </c>
-      <c r="F16">
-        <v>0.9052991118201563</v>
+        <v>1.00215669691888</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02308686615432</v>
+        <v>1.043325162027406</v>
       </c>
       <c r="J16">
-        <v>0.9862994764618935</v>
+        <v>1.022005176322272</v>
       </c>
       <c r="K16">
-        <v>0.9976795345187731</v>
+        <v>1.028509391204481</v>
       </c>
       <c r="L16">
-        <v>0.9810945736882215</v>
-      </c>
-      <c r="M16">
-        <v>0.9215756945307924</v>
+        <v>1.016450556813446</v>
       </c>
       <c r="N16">
-        <v>0.9877001348486002</v>
+        <v>1.023456540898282</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9606034546041502</v>
+        <v>0.9952718909513089</v>
       </c>
       <c r="D17">
-        <v>0.9864475600940407</v>
+        <v>1.015651860757502</v>
       </c>
       <c r="E17">
-        <v>0.9698363413988502</v>
-      </c>
-      <c r="F17">
-        <v>0.9128795863120415</v>
+        <v>1.003444309890098</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025064526043256</v>
+        <v>1.043874011963281</v>
       </c>
       <c r="J17">
-        <v>0.9896645494829532</v>
+        <v>1.022912983821156</v>
       </c>
       <c r="K17">
-        <v>1.000697459936128</v>
+        <v>1.029390911039554</v>
       </c>
       <c r="L17">
-        <v>0.9843947596829824</v>
-      </c>
-      <c r="M17">
-        <v>0.9286094859852234</v>
+        <v>1.017392216195723</v>
       </c>
       <c r="N17">
-        <v>0.9910699866593297</v>
+        <v>1.024365637587941</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9630514813250838</v>
+        <v>0.9962321975688262</v>
       </c>
       <c r="D18">
-        <v>0.9883986807887171</v>
+        <v>1.016358638147386</v>
       </c>
       <c r="E18">
-        <v>0.9719591130728396</v>
-      </c>
-      <c r="F18">
-        <v>0.917170953546396</v>
+        <v>1.004190706688221</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0261904550301</v>
+        <v>1.044190637897445</v>
       </c>
       <c r="J18">
-        <v>0.9915868858438686</v>
+        <v>1.023438307548259</v>
       </c>
       <c r="K18">
-        <v>1.002420718716382</v>
+        <v>1.029900850657592</v>
       </c>
       <c r="L18">
-        <v>0.9862800839305567</v>
-      </c>
-      <c r="M18">
-        <v>0.9325909495265046</v>
+        <v>1.017937493041262</v>
       </c>
       <c r="N18">
-        <v>0.9929950529583723</v>
+        <v>1.024891707334992</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9638781603762755</v>
+        <v>0.9965584608822355</v>
       </c>
       <c r="D19">
-        <v>0.989057539569396</v>
+        <v>1.016598818827821</v>
       </c>
       <c r="E19">
-        <v>0.9726760112243472</v>
-      </c>
-      <c r="F19">
-        <v>0.9186134091906916</v>
+        <v>1.004444430171126</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026569896036493</v>
+        <v>1.044298009057047</v>
       </c>
       <c r="J19">
-        <v>0.9922357826028882</v>
+        <v>1.023616727205034</v>
       </c>
       <c r="K19">
-        <v>1.003002291878992</v>
+        <v>1.030074015745639</v>
       </c>
       <c r="L19">
-        <v>0.9869164918118397</v>
-      </c>
-      <c r="M19">
-        <v>0.9339291563227666</v>
+        <v>1.018122751302817</v>
       </c>
       <c r="N19">
-        <v>0.9936448712252193</v>
+        <v>1.025070380368144</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9601492626388909</v>
+        <v>0.9950946877606477</v>
       </c>
       <c r="D20">
-        <v>0.9860855510371298</v>
+        <v>1.015521466733656</v>
       </c>
       <c r="E20">
-        <v>0.9694425229986408</v>
-      </c>
-      <c r="F20">
-        <v>0.9120800577150594</v>
+        <v>1.003306644046505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024855248908039</v>
+        <v>1.043815489722273</v>
       </c>
       <c r="J20">
-        <v>0.9893077644412713</v>
+        <v>1.022816019387599</v>
       </c>
       <c r="K20">
-        <v>1.00037756290265</v>
+        <v>1.029296772212787</v>
       </c>
       <c r="L20">
-        <v>0.9840448474381706</v>
-      </c>
-      <c r="M20">
-        <v>0.9278676589955621</v>
+        <v>1.017291598235577</v>
       </c>
       <c r="N20">
-        <v>0.9907126949419643</v>
+        <v>1.024268535453766</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9474150858853423</v>
+        <v>0.9902520581123844</v>
       </c>
       <c r="D21">
-        <v>0.975934123793703</v>
+        <v>1.011961280489132</v>
       </c>
       <c r="E21">
-        <v>0.9584050146874764</v>
-      </c>
-      <c r="F21">
-        <v>0.8891974131322247</v>
+        <v>0.9995522608812577</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018938459059896</v>
+        <v>1.042205144338689</v>
       </c>
       <c r="J21">
-        <v>0.979288639539537</v>
+        <v>1.020163067078168</v>
       </c>
       <c r="K21">
-        <v>0.991386240104485</v>
+        <v>1.026719531683248</v>
       </c>
       <c r="L21">
-        <v>0.9742197220919758</v>
-      </c>
-      <c r="M21">
-        <v>0.9066332263910074</v>
+        <v>1.01454212078544</v>
       </c>
       <c r="N21">
-        <v>0.9806793417336602</v>
+        <v>1.021611815647758</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9388633495974912</v>
+        <v>0.9871403457235454</v>
       </c>
       <c r="D22">
-        <v>0.9691138424193988</v>
+        <v>1.009677055640931</v>
       </c>
       <c r="E22">
-        <v>0.9509976018748114</v>
-      </c>
-      <c r="F22">
-        <v>0.8732514543195136</v>
+        <v>0.9971476249168957</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014909195350299</v>
+        <v>1.041159841261561</v>
       </c>
       <c r="J22">
-        <v>0.9725428722820597</v>
+        <v>1.018455525500221</v>
       </c>
       <c r="K22">
-        <v>0.9853230365362902</v>
+        <v>1.02505921520871</v>
       </c>
       <c r="L22">
-        <v>0.9676065872306843</v>
-      </c>
-      <c r="M22">
-        <v>0.8918347933424708</v>
+        <v>1.012775800485045</v>
       </c>
       <c r="N22">
-        <v>0.9739239947129269</v>
+        <v>1.019901849164913</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9434542494909637</v>
+        <v>0.988796454102013</v>
       </c>
       <c r="D23">
-        <v>0.9727756338854981</v>
+        <v>1.01089241620329</v>
       </c>
       <c r="E23">
-        <v>0.9549736516143652</v>
-      </c>
-      <c r="F23">
-        <v>0.8818760306876029</v>
+        <v>0.9984266616048816</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017078068077</v>
+        <v>1.041717147152618</v>
       </c>
       <c r="J23">
-        <v>0.9761660147503144</v>
+        <v>1.019364563694725</v>
       </c>
       <c r="K23">
-        <v>0.9885805817379999</v>
+        <v>1.025943250206613</v>
       </c>
       <c r="L23">
-        <v>0.9711582160605308</v>
-      </c>
-      <c r="M23">
-        <v>0.8998386220819945</v>
+        <v>1.013715815369094</v>
       </c>
       <c r="N23">
-        <v>0.9775522824590669</v>
+        <v>1.020812178297922</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9603546443256438</v>
+        <v>0.995174779931575</v>
       </c>
       <c r="D24">
-        <v>0.9862492488177719</v>
+        <v>1.015580401121984</v>
       </c>
       <c r="E24">
-        <v>0.9696206031811294</v>
-      </c>
-      <c r="F24">
-        <v>0.9124417289112328</v>
+        <v>1.003368863650221</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024949896956812</v>
+        <v>1.043841944235127</v>
       </c>
       <c r="J24">
-        <v>0.9894691044462812</v>
+        <v>1.022859846355531</v>
       </c>
       <c r="K24">
-        <v>1.000522224331476</v>
+        <v>1.029339322568968</v>
       </c>
       <c r="L24">
-        <v>0.9842030793703981</v>
-      </c>
-      <c r="M24">
-        <v>0.9282032298975429</v>
+        <v>1.017337075432937</v>
       </c>
       <c r="N24">
-        <v>0.9908742640682879</v>
+        <v>1.02431242466102</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9780469975601426</v>
+        <v>1.002302433878348</v>
       </c>
       <c r="D25">
-        <v>1.00034891012452</v>
+        <v>1.020831557357498</v>
       </c>
       <c r="E25">
-        <v>0.9849668815297199</v>
-      </c>
-      <c r="F25">
-        <v>0.9428575153940995</v>
+        <v>1.008922755829341</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033012785516965</v>
+        <v>1.046170532414017</v>
       </c>
       <c r="J25">
-        <v>1.003336447382217</v>
+        <v>1.026752559612728</v>
       </c>
       <c r="K25">
-        <v>1.012941812126263</v>
+        <v>1.033114873480812</v>
       </c>
       <c r="L25">
-        <v>0.9978031379914755</v>
-      </c>
-      <c r="M25">
-        <v>0.9564127790357388</v>
+        <v>1.021384118788328</v>
       </c>
       <c r="N25">
-        <v>1.004761300221799</v>
+        <v>1.028210666017543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007784084153049</v>
+        <v>1.02879502170626</v>
       </c>
       <c r="D2">
-        <v>1.024877983468726</v>
+        <v>1.033830891926608</v>
       </c>
       <c r="E2">
-        <v>1.013217270397126</v>
+        <v>1.028720230191227</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047923034502341</v>
+        <v>1.035571040128027</v>
       </c>
       <c r="J2">
-        <v>1.029734441389677</v>
+        <v>1.033945360437227</v>
       </c>
       <c r="K2">
-        <v>1.036001275977849</v>
+        <v>1.036632111225898</v>
       </c>
       <c r="L2">
-        <v>1.024495488227872</v>
+        <v>1.031536226695657</v>
       </c>
       <c r="N2">
-        <v>1.031196782408647</v>
+        <v>1.035413681444249</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01165434702855</v>
+        <v>1.02960165680806</v>
       </c>
       <c r="D3">
-        <v>1.027738571513604</v>
+        <v>1.034440068040579</v>
       </c>
       <c r="E3">
-        <v>1.01626202146505</v>
+        <v>1.02940109902744</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049137379121275</v>
+        <v>1.035759800590749</v>
       </c>
       <c r="J3">
-        <v>1.031832267293768</v>
+        <v>1.034393487360341</v>
       </c>
       <c r="K3">
-        <v>1.038028419947278</v>
+        <v>1.037050882515991</v>
       </c>
       <c r="L3">
-        <v>1.026690970517399</v>
+        <v>1.032025433128386</v>
       </c>
       <c r="N3">
-        <v>1.03329758746614</v>
+        <v>1.035862444758984</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014110274045104</v>
+        <v>1.030123934658339</v>
       </c>
       <c r="D4">
-        <v>1.029555191803889</v>
+        <v>1.034834381236086</v>
       </c>
       <c r="E4">
-        <v>1.018199730566883</v>
+        <v>1.029842352762316</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049897050832653</v>
+        <v>1.035880673923915</v>
       </c>
       <c r="J4">
-        <v>1.033159797272088</v>
+        <v>1.034683121708589</v>
       </c>
       <c r="K4">
-        <v>1.039309532180356</v>
+        <v>1.037321297242682</v>
       </c>
       <c r="L4">
-        <v>1.028083353171864</v>
+        <v>1.032341989910051</v>
       </c>
       <c r="N4">
-        <v>1.034627002689299</v>
+        <v>1.036152490421228</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015131506336736</v>
+        <v>1.030343577795149</v>
       </c>
       <c r="D5">
-        <v>1.030310878086624</v>
+        <v>1.035000181099876</v>
       </c>
       <c r="E5">
-        <v>1.019006791462307</v>
+        <v>1.030028018218281</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050210283512716</v>
+        <v>1.035931184810866</v>
       </c>
       <c r="J5">
-        <v>1.033710904495364</v>
+        <v>1.03480480277005</v>
       </c>
       <c r="K5">
-        <v>1.039840954435066</v>
+        <v>1.037434844568567</v>
       </c>
       <c r="L5">
-        <v>1.028662119738026</v>
+        <v>1.032475070766454</v>
       </c>
       <c r="N5">
-        <v>1.035178892548045</v>
+        <v>1.036274344283753</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015302326415131</v>
+        <v>1.03038046134078</v>
       </c>
       <c r="D6">
-        <v>1.030437296665189</v>
+        <v>1.035028021366974</v>
       </c>
       <c r="E6">
-        <v>1.019141863803729</v>
+        <v>1.030059201733508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050262520180425</v>
+        <v>1.035939647943761</v>
       </c>
       <c r="J6">
-        <v>1.033803033015748</v>
+        <v>1.034825228754535</v>
       </c>
       <c r="K6">
-        <v>1.039929767519372</v>
+        <v>1.037453901706474</v>
       </c>
       <c r="L6">
-        <v>1.028758915489032</v>
+        <v>1.032497415609321</v>
       </c>
       <c r="N6">
-        <v>1.035271151901496</v>
+        <v>1.036294799275479</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014123963516693</v>
+        <v>1.030126869238198</v>
       </c>
       <c r="D7">
-        <v>1.029565320567986</v>
+        <v>1.034836596544085</v>
       </c>
       <c r="E7">
-        <v>1.01821054394766</v>
+        <v>1.029844832997505</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049901260216443</v>
+        <v>1.035881350049487</v>
       </c>
       <c r="J7">
-        <v>1.033167188421676</v>
+        <v>1.034684747937683</v>
       </c>
       <c r="K7">
-        <v>1.039316660980069</v>
+        <v>1.037322814999885</v>
       </c>
       <c r="L7">
-        <v>1.028091112357195</v>
+        <v>1.032343768143231</v>
       </c>
       <c r="N7">
-        <v>1.034634404335168</v>
+        <v>1.036154118959755</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009102290523669</v>
+        <v>1.029067558249217</v>
       </c>
       <c r="D8">
-        <v>1.025851977349101</v>
+        <v>1.034036736678462</v>
       </c>
       <c r="E8">
-        <v>1.014253110031942</v>
+        <v>1.028950189829544</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048338899761182</v>
+        <v>1.035635094494137</v>
       </c>
       <c r="J8">
-        <v>1.030449709624883</v>
+        <v>1.034096875337522</v>
       </c>
       <c r="K8">
-        <v>1.036692793343984</v>
+        <v>1.03677375172276</v>
       </c>
       <c r="L8">
-        <v>1.025243413947784</v>
+        <v>1.031701553897513</v>
       </c>
       <c r="N8">
-        <v>1.031913066406784</v>
+        <v>1.035565411513071</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9998665137080024</v>
+        <v>1.027203527715436</v>
       </c>
       <c r="D9">
-        <v>1.019035559036179</v>
+        <v>1.032628400724347</v>
       </c>
       <c r="E9">
-        <v>1.007020911318012</v>
+        <v>1.027379050850588</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045380658249631</v>
+        <v>1.035191492904259</v>
       </c>
       <c r="J9">
-        <v>1.025423986600956</v>
+        <v>1.033058470985553</v>
       </c>
       <c r="K9">
-        <v>1.031827166609921</v>
+        <v>1.035802016462618</v>
       </c>
       <c r="L9">
-        <v>1.020001096971423</v>
+        <v>1.030570010141306</v>
       </c>
       <c r="N9">
-        <v>1.026880206279705</v>
+        <v>1.034525532507816</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9934250813252596</v>
+        <v>1.025962697697182</v>
       </c>
       <c r="D10">
-        <v>1.014293299541842</v>
+        <v>1.031690372404063</v>
       </c>
       <c r="E10">
-        <v>1.002010548255793</v>
+        <v>1.026335323610398</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043262657988421</v>
+        <v>1.034889309799399</v>
       </c>
       <c r="J10">
-        <v>1.02190201312023</v>
+        <v>1.032364600532352</v>
       </c>
       <c r="K10">
-        <v>1.028409192130866</v>
+        <v>1.035151439767282</v>
       </c>
       <c r="L10">
-        <v>1.016343596271812</v>
+        <v>1.029815812088517</v>
       </c>
       <c r="N10">
-        <v>1.02335323119266</v>
+        <v>1.033830676678983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9905626875975316</v>
+        <v>1.025425866375414</v>
       </c>
       <c r="D11">
-        <v>1.012189455903824</v>
+        <v>1.031284423455613</v>
       </c>
       <c r="E11">
-        <v>0.9997926387779429</v>
+        <v>1.025884278858896</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042309055720318</v>
+        <v>1.034756942409548</v>
       </c>
       <c r="J11">
-        <v>1.020333409069154</v>
+        <v>1.032063783748245</v>
       </c>
       <c r="K11">
-        <v>1.026885100734125</v>
+        <v>1.03486909692326</v>
       </c>
       <c r="L11">
-        <v>1.014718466687585</v>
+        <v>1.029489292683794</v>
       </c>
       <c r="N11">
-        <v>1.02178239954391</v>
+        <v>1.033529432700538</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9894879429829238</v>
+        <v>1.025226533571676</v>
       </c>
       <c r="D12">
-        <v>1.011400108599963</v>
+        <v>1.031133671387357</v>
       </c>
       <c r="E12">
-        <v>0.9989612151711885</v>
+        <v>1.025716877268014</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041949189752397</v>
+        <v>1.034707547734599</v>
       </c>
       <c r="J12">
-        <v>1.019743952559542</v>
+        <v>1.031951993287356</v>
       </c>
       <c r="K12">
-        <v>1.026312111793591</v>
+        <v>1.03476412760478</v>
       </c>
       <c r="L12">
-        <v>1.014108343755395</v>
+        <v>1.029368018272376</v>
       </c>
       <c r="N12">
-        <v>1.021192105938442</v>
+        <v>1.033417483484372</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9897190096275645</v>
+        <v>1.025269287928354</v>
       </c>
       <c r="D13">
-        <v>1.011569788348552</v>
+        <v>1.031166006583804</v>
       </c>
       <c r="E13">
-        <v>0.9991399073668359</v>
+        <v>1.025752779269672</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042026641043275</v>
+        <v>1.034718153342792</v>
       </c>
       <c r="J13">
-        <v>1.019870705395221</v>
+        <v>1.031975975130192</v>
       </c>
       <c r="K13">
-        <v>1.026435335089545</v>
+        <v>1.034786648139575</v>
       </c>
       <c r="L13">
-        <v>1.014239514598296</v>
+        <v>1.029394031595608</v>
       </c>
       <c r="N13">
-        <v>1.021319038777687</v>
+        <v>1.033441499384175</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9904740871103964</v>
+        <v>1.025409388020715</v>
       </c>
       <c r="D14">
-        <v>1.012124370951222</v>
+        <v>1.031271961508757</v>
       </c>
       <c r="E14">
-        <v>0.9997240698789858</v>
+        <v>1.025870438595421</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042279425496192</v>
+        <v>1.03475286406701</v>
       </c>
       <c r="J14">
-        <v>1.020284824842377</v>
+        <v>1.032054544201994</v>
       </c>
       <c r="K14">
-        <v>1.026837879006444</v>
+        <v>1.034860422048887</v>
       </c>
       <c r="L14">
-        <v>1.014668167409639</v>
+        <v>1.029479267902458</v>
       </c>
       <c r="N14">
-        <v>1.021733746321958</v>
+        <v>1.033520180033071</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9909377719632335</v>
+        <v>1.025495717671463</v>
       </c>
       <c r="D15">
-        <v>1.012465012974841</v>
+        <v>1.031337248587679</v>
       </c>
       <c r="E15">
-        <v>1.000082975514877</v>
+        <v>1.025942950535078</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042434419570625</v>
+        <v>1.034774220364831</v>
       </c>
       <c r="J15">
-        <v>1.020539067397316</v>
+        <v>1.0321029461221</v>
       </c>
       <c r="K15">
-        <v>1.02708498105634</v>
+        <v>1.034905864092616</v>
       </c>
       <c r="L15">
-        <v>1.014931408304854</v>
+        <v>1.029531786096799</v>
       </c>
       <c r="N15">
-        <v>1.021988349930488</v>
+        <v>1.033568650689456</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9936134624092571</v>
+        <v>1.025998335182329</v>
       </c>
       <c r="D16">
-        <v>1.014431836330009</v>
+        <v>1.031717318767279</v>
       </c>
       <c r="E16">
-        <v>1.00215669691888</v>
+        <v>1.026365277005201</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043325162027406</v>
+        <v>1.034898062632418</v>
       </c>
       <c r="J16">
-        <v>1.022005176322272</v>
+        <v>1.032384557146728</v>
       </c>
       <c r="K16">
-        <v>1.028509391204481</v>
+        <v>1.035170164588784</v>
       </c>
       <c r="L16">
-        <v>1.016450556813446</v>
+        <v>1.029837483351048</v>
       </c>
       <c r="N16">
-        <v>1.023456540898282</v>
+        <v>1.03385066163404</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9952718909513089</v>
+        <v>1.026313737225066</v>
       </c>
       <c r="D17">
-        <v>1.015651860757502</v>
+        <v>1.031955787907723</v>
       </c>
       <c r="E17">
-        <v>1.003444309890098</v>
+        <v>1.026630432473682</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043874011963281</v>
+        <v>1.034975339235995</v>
       </c>
       <c r="J17">
-        <v>1.022912983821156</v>
+        <v>1.032561107165532</v>
       </c>
       <c r="K17">
-        <v>1.029390911039554</v>
+        <v>1.035335783234891</v>
       </c>
       <c r="L17">
-        <v>1.017392216195723</v>
+        <v>1.030029254444497</v>
       </c>
       <c r="N17">
-        <v>1.024365637587941</v>
+        <v>1.034027462374121</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9962321975688262</v>
+        <v>1.026497749809111</v>
       </c>
       <c r="D18">
-        <v>1.016358638147386</v>
+        <v>1.032094904362763</v>
       </c>
       <c r="E18">
-        <v>1.004190706688221</v>
+        <v>1.026785179499613</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044190637897445</v>
+        <v>1.035020266645981</v>
       </c>
       <c r="J18">
-        <v>1.023438307548259</v>
+        <v>1.032664050373649</v>
       </c>
       <c r="K18">
-        <v>1.029900850657592</v>
+        <v>1.035432324058842</v>
       </c>
       <c r="L18">
-        <v>1.017937493041262</v>
+        <v>1.030141116329107</v>
       </c>
       <c r="N18">
-        <v>1.024891707334992</v>
+        <v>1.034130551773402</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9965584608822355</v>
+        <v>1.026560500740823</v>
       </c>
       <c r="D19">
-        <v>1.016598818827821</v>
+        <v>1.032142343058557</v>
       </c>
       <c r="E19">
-        <v>1.004444430171126</v>
+        <v>1.026837958821339</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044298009057047</v>
+        <v>1.035035560818802</v>
       </c>
       <c r="J19">
-        <v>1.023616727205034</v>
+        <v>1.032699145297479</v>
       </c>
       <c r="K19">
-        <v>1.030074015745639</v>
+        <v>1.035465231472911</v>
       </c>
       <c r="L19">
-        <v>1.018122751302817</v>
+        <v>1.030179259154312</v>
       </c>
       <c r="N19">
-        <v>1.025070380368144</v>
+        <v>1.034165696536049</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9950946877606477</v>
+        <v>1.026279893016831</v>
       </c>
       <c r="D20">
-        <v>1.015521466733656</v>
+        <v>1.031930200194682</v>
       </c>
       <c r="E20">
-        <v>1.003306644046505</v>
+        <v>1.026601974858416</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043815489722273</v>
+        <v>1.034967063358157</v>
       </c>
       <c r="J20">
-        <v>1.022816019387599</v>
+        <v>1.032542168674622</v>
       </c>
       <c r="K20">
-        <v>1.029296772212787</v>
+        <v>1.035318020296764</v>
       </c>
       <c r="L20">
-        <v>1.017291598235577</v>
+        <v>1.030008678688431</v>
       </c>
       <c r="N20">
-        <v>1.024268535453766</v>
+        <v>1.034008496988382</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9902520581123844</v>
+        <v>1.025368130082454</v>
       </c>
       <c r="D21">
-        <v>1.011961280489132</v>
+        <v>1.031240759430762</v>
       </c>
       <c r="E21">
-        <v>0.9995522608812577</v>
+        <v>1.025835787072966</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042205144338689</v>
+        <v>1.034742648898088</v>
       </c>
       <c r="J21">
-        <v>1.020163067078168</v>
+        <v>1.032031409040803</v>
       </c>
       <c r="K21">
-        <v>1.026719531683248</v>
+        <v>1.034838700072256</v>
       </c>
       <c r="L21">
-        <v>1.01454212078544</v>
+        <v>1.029454167662729</v>
       </c>
       <c r="N21">
-        <v>1.021611815647758</v>
+        <v>1.033497012017299</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9871403457235454</v>
+        <v>1.024795275834943</v>
       </c>
       <c r="D22">
-        <v>1.009677055640931</v>
+        <v>1.030807486659215</v>
       </c>
       <c r="E22">
-        <v>0.9971476249168957</v>
+        <v>1.025354845156333</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041159841261561</v>
+        <v>1.034600234604931</v>
       </c>
       <c r="J22">
-        <v>1.018455525500221</v>
+        <v>1.031709964069073</v>
       </c>
       <c r="K22">
-        <v>1.02505921520871</v>
+        <v>1.034536785683485</v>
       </c>
       <c r="L22">
-        <v>1.012775800485045</v>
+        <v>1.029105579854873</v>
       </c>
       <c r="N22">
-        <v>1.019901849164913</v>
+        <v>1.033175110556837</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.988796454102013</v>
+        <v>1.025098917534555</v>
       </c>
       <c r="D23">
-        <v>1.01089241620329</v>
+        <v>1.031037152604631</v>
       </c>
       <c r="E23">
-        <v>0.9984266616048816</v>
+        <v>1.025609725980479</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041717147152618</v>
+        <v>1.034675855576664</v>
       </c>
       <c r="J23">
-        <v>1.019364563694725</v>
+        <v>1.031880397086321</v>
       </c>
       <c r="K23">
-        <v>1.025943250206613</v>
+        <v>1.03469688758327</v>
       </c>
       <c r="L23">
-        <v>1.013715815369094</v>
+        <v>1.02929036713324</v>
       </c>
       <c r="N23">
-        <v>1.020812178297922</v>
+        <v>1.03334578560852</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.995174779931575</v>
+        <v>1.026295185622253</v>
       </c>
       <c r="D24">
-        <v>1.015580401121984</v>
+        <v>1.031941762114784</v>
       </c>
       <c r="E24">
-        <v>1.003368863650221</v>
+        <v>1.026614833363317</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043841944235127</v>
+        <v>1.034970803324576</v>
       </c>
       <c r="J24">
-        <v>1.022859846355531</v>
+        <v>1.0325507262731</v>
       </c>
       <c r="K24">
-        <v>1.029339322568968</v>
+        <v>1.035326046794808</v>
       </c>
       <c r="L24">
-        <v>1.017337075432937</v>
+        <v>1.030017975971495</v>
       </c>
       <c r="N24">
-        <v>1.02431242466102</v>
+        <v>1.034017066739632</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002302433878348</v>
+        <v>1.027685104421995</v>
       </c>
       <c r="D25">
-        <v>1.020831557357498</v>
+        <v>1.032992345353342</v>
       </c>
       <c r="E25">
-        <v>1.008922755829341</v>
+        <v>1.027784584097642</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046170532414017</v>
+        <v>1.035307314938674</v>
       </c>
       <c r="J25">
-        <v>1.026752559612728</v>
+        <v>1.033327211302193</v>
       </c>
       <c r="K25">
-        <v>1.033114873480812</v>
+        <v>1.036053724519098</v>
       </c>
       <c r="L25">
-        <v>1.021384118788328</v>
+        <v>1.030862518471634</v>
       </c>
       <c r="N25">
-        <v>1.028210666017543</v>
+        <v>1.03479465446653</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02879502170626</v>
+        <v>1.007784084153049</v>
       </c>
       <c r="D2">
-        <v>1.033830891926608</v>
+        <v>1.024877983468727</v>
       </c>
       <c r="E2">
-        <v>1.028720230191227</v>
+        <v>1.013217270397127</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035571040128027</v>
+        <v>1.047923034502342</v>
       </c>
       <c r="J2">
-        <v>1.033945360437227</v>
+        <v>1.029734441389678</v>
       </c>
       <c r="K2">
-        <v>1.036632111225898</v>
+        <v>1.036001275977849</v>
       </c>
       <c r="L2">
-        <v>1.031536226695657</v>
+        <v>1.024495488227873</v>
       </c>
       <c r="N2">
-        <v>1.035413681444249</v>
+        <v>1.031196782408647</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02960165680806</v>
+        <v>1.011654347028549</v>
       </c>
       <c r="D3">
-        <v>1.034440068040579</v>
+        <v>1.027738571513604</v>
       </c>
       <c r="E3">
-        <v>1.02940109902744</v>
+        <v>1.01626202146505</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035759800590749</v>
+        <v>1.049137379121275</v>
       </c>
       <c r="J3">
-        <v>1.034393487360341</v>
+        <v>1.031832267293767</v>
       </c>
       <c r="K3">
-        <v>1.037050882515991</v>
+        <v>1.038028419947278</v>
       </c>
       <c r="L3">
-        <v>1.032025433128386</v>
+        <v>1.026690970517399</v>
       </c>
       <c r="N3">
-        <v>1.035862444758984</v>
+        <v>1.03329758746614</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030123934658339</v>
+        <v>1.014110274045104</v>
       </c>
       <c r="D4">
-        <v>1.034834381236086</v>
+        <v>1.029555191803889</v>
       </c>
       <c r="E4">
-        <v>1.029842352762316</v>
+        <v>1.018199730566882</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035880673923915</v>
+        <v>1.049897050832653</v>
       </c>
       <c r="J4">
-        <v>1.034683121708589</v>
+        <v>1.033159797272088</v>
       </c>
       <c r="K4">
-        <v>1.037321297242682</v>
+        <v>1.039309532180356</v>
       </c>
       <c r="L4">
-        <v>1.032341989910051</v>
+        <v>1.028083353171863</v>
       </c>
       <c r="N4">
-        <v>1.036152490421228</v>
+        <v>1.034627002689299</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030343577795149</v>
+        <v>1.015131506336736</v>
       </c>
       <c r="D5">
-        <v>1.035000181099876</v>
+        <v>1.030310878086624</v>
       </c>
       <c r="E5">
-        <v>1.030028018218281</v>
+        <v>1.019006791462306</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035931184810866</v>
+        <v>1.050210283512716</v>
       </c>
       <c r="J5">
-        <v>1.03480480277005</v>
+        <v>1.033710904495363</v>
       </c>
       <c r="K5">
-        <v>1.037434844568567</v>
+        <v>1.039840954435066</v>
       </c>
       <c r="L5">
-        <v>1.032475070766454</v>
+        <v>1.028662119738025</v>
       </c>
       <c r="N5">
-        <v>1.036274344283753</v>
+        <v>1.035178892548045</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03038046134078</v>
+        <v>1.015302326415131</v>
       </c>
       <c r="D6">
-        <v>1.035028021366974</v>
+        <v>1.030437296665189</v>
       </c>
       <c r="E6">
-        <v>1.030059201733508</v>
+        <v>1.019141863803729</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035939647943761</v>
+        <v>1.050262520180425</v>
       </c>
       <c r="J6">
-        <v>1.034825228754535</v>
+        <v>1.033803033015748</v>
       </c>
       <c r="K6">
-        <v>1.037453901706474</v>
+        <v>1.039929767519372</v>
       </c>
       <c r="L6">
-        <v>1.032497415609321</v>
+        <v>1.028758915489032</v>
       </c>
       <c r="N6">
-        <v>1.036294799275479</v>
+        <v>1.035271151901496</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030126869238198</v>
+        <v>1.014123963516692</v>
       </c>
       <c r="D7">
-        <v>1.034836596544085</v>
+        <v>1.029565320567985</v>
       </c>
       <c r="E7">
-        <v>1.029844832997505</v>
+        <v>1.018210543947659</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035881350049487</v>
+        <v>1.049901260216442</v>
       </c>
       <c r="J7">
-        <v>1.034684747937683</v>
+        <v>1.033167188421675</v>
       </c>
       <c r="K7">
-        <v>1.037322814999885</v>
+        <v>1.039316660980068</v>
       </c>
       <c r="L7">
-        <v>1.032343768143231</v>
+        <v>1.028091112357194</v>
       </c>
       <c r="N7">
-        <v>1.036154118959755</v>
+        <v>1.034634404335167</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029067558249217</v>
+        <v>1.009102290523669</v>
       </c>
       <c r="D8">
-        <v>1.034036736678462</v>
+        <v>1.0258519773491</v>
       </c>
       <c r="E8">
-        <v>1.028950189829544</v>
+        <v>1.014253110031941</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035635094494137</v>
+        <v>1.048338899761182</v>
       </c>
       <c r="J8">
-        <v>1.034096875337522</v>
+        <v>1.030449709624882</v>
       </c>
       <c r="K8">
-        <v>1.03677375172276</v>
+        <v>1.036692793343984</v>
       </c>
       <c r="L8">
-        <v>1.031701553897513</v>
+        <v>1.025243413947783</v>
       </c>
       <c r="N8">
-        <v>1.035565411513071</v>
+        <v>1.031913066406783</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027203527715436</v>
+        <v>0.9998665137080027</v>
       </c>
       <c r="D9">
-        <v>1.032628400724347</v>
+        <v>1.01903555903618</v>
       </c>
       <c r="E9">
-        <v>1.027379050850588</v>
+        <v>1.007020911318013</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035191492904259</v>
+        <v>1.045380658249632</v>
       </c>
       <c r="J9">
-        <v>1.033058470985553</v>
+        <v>1.025423986600956</v>
       </c>
       <c r="K9">
-        <v>1.035802016462618</v>
+        <v>1.031827166609922</v>
       </c>
       <c r="L9">
-        <v>1.030570010141306</v>
+        <v>1.020001096971423</v>
       </c>
       <c r="N9">
-        <v>1.034525532507816</v>
+        <v>1.026880206279705</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025962697697182</v>
+        <v>0.9934250813252598</v>
       </c>
       <c r="D10">
-        <v>1.031690372404063</v>
+        <v>1.014293299541841</v>
       </c>
       <c r="E10">
-        <v>1.026335323610398</v>
+        <v>1.002010548255793</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034889309799399</v>
+        <v>1.043262657988421</v>
       </c>
       <c r="J10">
-        <v>1.032364600532352</v>
+        <v>1.02190201312023</v>
       </c>
       <c r="K10">
-        <v>1.035151439767282</v>
+        <v>1.028409192130866</v>
       </c>
       <c r="L10">
-        <v>1.029815812088517</v>
+        <v>1.016343596271812</v>
       </c>
       <c r="N10">
-        <v>1.033830676678983</v>
+        <v>1.02335323119266</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025425866375414</v>
+        <v>0.990562687597532</v>
       </c>
       <c r="D11">
-        <v>1.031284423455613</v>
+        <v>1.012189455903824</v>
       </c>
       <c r="E11">
-        <v>1.025884278858896</v>
+        <v>0.9997926387779432</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034756942409548</v>
+        <v>1.042309055720319</v>
       </c>
       <c r="J11">
-        <v>1.032063783748245</v>
+        <v>1.020333409069154</v>
       </c>
       <c r="K11">
-        <v>1.03486909692326</v>
+        <v>1.026885100734125</v>
       </c>
       <c r="L11">
-        <v>1.029489292683794</v>
+        <v>1.014718466687585</v>
       </c>
       <c r="N11">
-        <v>1.033529432700538</v>
+        <v>1.021782399543911</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025226533571676</v>
+        <v>0.9894879429829232</v>
       </c>
       <c r="D12">
-        <v>1.031133671387357</v>
+        <v>1.011400108599962</v>
       </c>
       <c r="E12">
-        <v>1.025716877268014</v>
+        <v>0.998961215171188</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034707547734599</v>
+        <v>1.041949189752397</v>
       </c>
       <c r="J12">
-        <v>1.031951993287356</v>
+        <v>1.019743952559541</v>
       </c>
       <c r="K12">
-        <v>1.03476412760478</v>
+        <v>1.026312111793591</v>
       </c>
       <c r="L12">
-        <v>1.029368018272376</v>
+        <v>1.014108343755395</v>
       </c>
       <c r="N12">
-        <v>1.033417483484372</v>
+        <v>1.021192105938442</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025269287928354</v>
+        <v>0.9897190096275633</v>
       </c>
       <c r="D13">
-        <v>1.031166006583804</v>
+        <v>1.011569788348551</v>
       </c>
       <c r="E13">
-        <v>1.025752779269672</v>
+        <v>0.9991399073668347</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034718153342792</v>
+        <v>1.042026641043274</v>
       </c>
       <c r="J13">
-        <v>1.031975975130192</v>
+        <v>1.01987070539522</v>
       </c>
       <c r="K13">
-        <v>1.034786648139575</v>
+        <v>1.026435335089544</v>
       </c>
       <c r="L13">
-        <v>1.029394031595608</v>
+        <v>1.014239514598295</v>
       </c>
       <c r="N13">
-        <v>1.033441499384175</v>
+        <v>1.021319038777686</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025409388020715</v>
+        <v>0.9904740871103971</v>
       </c>
       <c r="D14">
-        <v>1.031271961508757</v>
+        <v>1.012124370951222</v>
       </c>
       <c r="E14">
-        <v>1.025870438595421</v>
+        <v>0.9997240698789863</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03475286406701</v>
+        <v>1.042279425496192</v>
       </c>
       <c r="J14">
-        <v>1.032054544201994</v>
+        <v>1.020284824842378</v>
       </c>
       <c r="K14">
-        <v>1.034860422048887</v>
+        <v>1.026837879006445</v>
       </c>
       <c r="L14">
-        <v>1.029479267902458</v>
+        <v>1.01466816740964</v>
       </c>
       <c r="N14">
-        <v>1.033520180033071</v>
+        <v>1.021733746321959</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025495717671463</v>
+        <v>0.990937771963233</v>
       </c>
       <c r="D15">
-        <v>1.031337248587679</v>
+        <v>1.012465012974841</v>
       </c>
       <c r="E15">
-        <v>1.025942950535078</v>
+        <v>1.000082975514877</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034774220364831</v>
+        <v>1.042434419570625</v>
       </c>
       <c r="J15">
-        <v>1.0321029461221</v>
+        <v>1.020539067397316</v>
       </c>
       <c r="K15">
-        <v>1.034905864092616</v>
+        <v>1.02708498105634</v>
       </c>
       <c r="L15">
-        <v>1.029531786096799</v>
+        <v>1.014931408304854</v>
       </c>
       <c r="N15">
-        <v>1.033568650689456</v>
+        <v>1.021988349930488</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025998335182329</v>
+        <v>0.9936134624092569</v>
       </c>
       <c r="D16">
-        <v>1.031717318767279</v>
+        <v>1.014431836330009</v>
       </c>
       <c r="E16">
-        <v>1.026365277005201</v>
+        <v>1.00215669691888</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034898062632418</v>
+        <v>1.043325162027406</v>
       </c>
       <c r="J16">
-        <v>1.032384557146728</v>
+        <v>1.022005176322272</v>
       </c>
       <c r="K16">
-        <v>1.035170164588784</v>
+        <v>1.02850939120448</v>
       </c>
       <c r="L16">
-        <v>1.029837483351048</v>
+        <v>1.016450556813446</v>
       </c>
       <c r="N16">
-        <v>1.03385066163404</v>
+        <v>1.023456540898282</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026313737225066</v>
+        <v>0.9952718909513097</v>
       </c>
       <c r="D17">
-        <v>1.031955787907723</v>
+        <v>1.015651860757503</v>
       </c>
       <c r="E17">
-        <v>1.026630432473682</v>
+        <v>1.003444309890099</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034975339235995</v>
+        <v>1.043874011963282</v>
       </c>
       <c r="J17">
-        <v>1.032561107165532</v>
+        <v>1.022912983821157</v>
       </c>
       <c r="K17">
-        <v>1.035335783234891</v>
+        <v>1.029390911039555</v>
       </c>
       <c r="L17">
-        <v>1.030029254444497</v>
+        <v>1.017392216195724</v>
       </c>
       <c r="N17">
-        <v>1.034027462374121</v>
+        <v>1.024365637587942</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026497749809111</v>
+        <v>0.9962321975688259</v>
       </c>
       <c r="D18">
-        <v>1.032094904362763</v>
+        <v>1.016358638147386</v>
       </c>
       <c r="E18">
-        <v>1.026785179499613</v>
+        <v>1.00419070668822</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035020266645981</v>
+        <v>1.044190637897444</v>
       </c>
       <c r="J18">
-        <v>1.032664050373649</v>
+        <v>1.023438307548258</v>
       </c>
       <c r="K18">
-        <v>1.035432324058842</v>
+        <v>1.029900850657592</v>
       </c>
       <c r="L18">
-        <v>1.030141116329107</v>
+        <v>1.017937493041262</v>
       </c>
       <c r="N18">
-        <v>1.034130551773402</v>
+        <v>1.024891707334991</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026560500740823</v>
+        <v>0.9965584608822359</v>
       </c>
       <c r="D19">
-        <v>1.032142343058557</v>
+        <v>1.016598818827821</v>
       </c>
       <c r="E19">
-        <v>1.026837958821339</v>
+        <v>1.004444430171126</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035035560818802</v>
+        <v>1.044298009057047</v>
       </c>
       <c r="J19">
-        <v>1.032699145297479</v>
+        <v>1.023616727205034</v>
       </c>
       <c r="K19">
-        <v>1.035465231472911</v>
+        <v>1.030074015745639</v>
       </c>
       <c r="L19">
-        <v>1.030179259154312</v>
+        <v>1.018122751302817</v>
       </c>
       <c r="N19">
-        <v>1.034165696536049</v>
+        <v>1.025070380368145</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026279893016831</v>
+        <v>0.9950946877606478</v>
       </c>
       <c r="D20">
-        <v>1.031930200194682</v>
+        <v>1.015521466733656</v>
       </c>
       <c r="E20">
-        <v>1.026601974858416</v>
+        <v>1.003306644046505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034967063358157</v>
+        <v>1.043815489722273</v>
       </c>
       <c r="J20">
-        <v>1.032542168674622</v>
+        <v>1.022816019387598</v>
       </c>
       <c r="K20">
-        <v>1.035318020296764</v>
+        <v>1.029296772212787</v>
       </c>
       <c r="L20">
-        <v>1.030008678688431</v>
+        <v>1.017291598235577</v>
       </c>
       <c r="N20">
-        <v>1.034008496988382</v>
+        <v>1.024268535453766</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025368130082454</v>
+        <v>0.990252058112383</v>
       </c>
       <c r="D21">
-        <v>1.031240759430762</v>
+        <v>1.01196128048913</v>
       </c>
       <c r="E21">
-        <v>1.025835787072966</v>
+        <v>0.9995522608812564</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034742648898088</v>
+        <v>1.042205144338689</v>
       </c>
       <c r="J21">
-        <v>1.032031409040803</v>
+        <v>1.020163067078167</v>
       </c>
       <c r="K21">
-        <v>1.034838700072256</v>
+        <v>1.026719531683246</v>
       </c>
       <c r="L21">
-        <v>1.029454167662729</v>
+        <v>1.014542120785439</v>
       </c>
       <c r="N21">
-        <v>1.033497012017299</v>
+        <v>1.021611815647757</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024795275834943</v>
+        <v>0.9871403457235455</v>
       </c>
       <c r="D22">
-        <v>1.030807486659215</v>
+        <v>1.009677055640931</v>
       </c>
       <c r="E22">
-        <v>1.025354845156333</v>
+        <v>0.9971476249168958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034600234604931</v>
+        <v>1.041159841261561</v>
       </c>
       <c r="J22">
-        <v>1.031709964069073</v>
+        <v>1.018455525500222</v>
       </c>
       <c r="K22">
-        <v>1.034536785683485</v>
+        <v>1.02505921520871</v>
       </c>
       <c r="L22">
-        <v>1.029105579854873</v>
+        <v>1.012775800485045</v>
       </c>
       <c r="N22">
-        <v>1.033175110556837</v>
+        <v>1.019901849164913</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025098917534555</v>
+        <v>0.9887964541020127</v>
       </c>
       <c r="D23">
-        <v>1.031037152604631</v>
+        <v>1.01089241620329</v>
       </c>
       <c r="E23">
-        <v>1.025609725980479</v>
+        <v>0.9984266616048816</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034675855576664</v>
+        <v>1.041717147152618</v>
       </c>
       <c r="J23">
-        <v>1.031880397086321</v>
+        <v>1.019364563694725</v>
       </c>
       <c r="K23">
-        <v>1.03469688758327</v>
+        <v>1.025943250206613</v>
       </c>
       <c r="L23">
-        <v>1.02929036713324</v>
+        <v>1.013715815369094</v>
       </c>
       <c r="N23">
-        <v>1.03334578560852</v>
+        <v>1.020812178297922</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026295185622253</v>
+        <v>0.9951747799315748</v>
       </c>
       <c r="D24">
-        <v>1.031941762114784</v>
+        <v>1.015580401121984</v>
       </c>
       <c r="E24">
-        <v>1.026614833363317</v>
+        <v>1.003368863650221</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034970803324576</v>
+        <v>1.043841944235127</v>
       </c>
       <c r="J24">
-        <v>1.0325507262731</v>
+        <v>1.02285984635553</v>
       </c>
       <c r="K24">
-        <v>1.035326046794808</v>
+        <v>1.029339322568968</v>
       </c>
       <c r="L24">
-        <v>1.030017975971495</v>
+        <v>1.017337075432937</v>
       </c>
       <c r="N24">
-        <v>1.034017066739632</v>
+        <v>1.024312424661019</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027685104421995</v>
+        <v>1.002302433878348</v>
       </c>
       <c r="D25">
-        <v>1.032992345353342</v>
+        <v>1.020831557357498</v>
       </c>
       <c r="E25">
-        <v>1.027784584097642</v>
+        <v>1.008922755829341</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035307314938674</v>
+        <v>1.046170532414017</v>
       </c>
       <c r="J25">
-        <v>1.033327211302193</v>
+        <v>1.026752559612728</v>
       </c>
       <c r="K25">
-        <v>1.036053724519098</v>
+        <v>1.033114873480812</v>
       </c>
       <c r="L25">
-        <v>1.030862518471634</v>
+        <v>1.021384118788328</v>
       </c>
       <c r="N25">
-        <v>1.03479465446653</v>
+        <v>1.028210666017542</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007784084153049</v>
+        <v>1.012735676776359</v>
       </c>
       <c r="D2">
-        <v>1.024877983468727</v>
+        <v>1.02997804627968</v>
       </c>
       <c r="E2">
-        <v>1.013217270397127</v>
+        <v>1.017319844104278</v>
+      </c>
+      <c r="F2">
+        <v>1.028689343461339</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047923034502342</v>
+        <v>1.051427311865767</v>
       </c>
       <c r="J2">
-        <v>1.029734441389678</v>
+        <v>1.034542025862243</v>
       </c>
       <c r="K2">
-        <v>1.036001275977849</v>
+        <v>1.041034958946968</v>
       </c>
       <c r="L2">
-        <v>1.024495488227873</v>
+        <v>1.028543046257757</v>
+      </c>
+      <c r="M2">
+        <v>1.039762951441343</v>
       </c>
       <c r="N2">
-        <v>1.031196782408647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015032675986809</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040042099213886</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040085551536337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011654347028549</v>
+        <v>1.016763057446282</v>
       </c>
       <c r="D3">
-        <v>1.027738571513604</v>
+        <v>1.032706537239142</v>
       </c>
       <c r="E3">
-        <v>1.01626202146505</v>
+        <v>1.020526626559571</v>
+      </c>
+      <c r="F3">
+        <v>1.031825733132688</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049137379121275</v>
+        <v>1.052731952102295</v>
       </c>
       <c r="J3">
-        <v>1.031832267293767</v>
+        <v>1.036806946612401</v>
       </c>
       <c r="K3">
-        <v>1.038028419947278</v>
+        <v>1.042937359645455</v>
       </c>
       <c r="L3">
-        <v>1.026690970517399</v>
+        <v>1.030903432925864</v>
+      </c>
+      <c r="M3">
+        <v>1.042066969307851</v>
       </c>
       <c r="N3">
-        <v>1.03329758746614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015826347298895</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041865573729418</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041428050675116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014110274045104</v>
+        <v>1.019319128573131</v>
       </c>
       <c r="D4">
-        <v>1.029555191803889</v>
+        <v>1.034441504068481</v>
       </c>
       <c r="E4">
-        <v>1.018199730566882</v>
+        <v>1.022567292243749</v>
+      </c>
+      <c r="F4">
+        <v>1.033816444432807</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049897050832653</v>
+        <v>1.053548893958608</v>
       </c>
       <c r="J4">
-        <v>1.033159797272088</v>
+        <v>1.038241234713647</v>
       </c>
       <c r="K4">
-        <v>1.039309532180356</v>
+        <v>1.044141288219928</v>
       </c>
       <c r="L4">
-        <v>1.028083353171863</v>
+        <v>1.032400770809223</v>
+      </c>
+      <c r="M4">
+        <v>1.043523172059116</v>
       </c>
       <c r="N4">
-        <v>1.034627002689299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016328801540185</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04301805747799</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042280220950932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015131506336736</v>
+        <v>1.020386816260416</v>
       </c>
       <c r="D5">
-        <v>1.030310878086624</v>
+        <v>1.035169223814305</v>
       </c>
       <c r="E5">
-        <v>1.019006791462306</v>
+        <v>1.023421681314187</v>
+      </c>
+      <c r="F5">
+        <v>1.034645246012907</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050210283512716</v>
+        <v>1.053889095660421</v>
       </c>
       <c r="J5">
-        <v>1.033710904495363</v>
+        <v>1.038841498729263</v>
       </c>
       <c r="K5">
-        <v>1.039840954435066</v>
+        <v>1.044646499473336</v>
       </c>
       <c r="L5">
-        <v>1.028662119738025</v>
+        <v>1.033027686551911</v>
+      </c>
+      <c r="M5">
+        <v>1.044128187025384</v>
       </c>
       <c r="N5">
-        <v>1.035178892548045</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016539941117878</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043496884436111</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042644591113578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015302326415131</v>
+        <v>1.020571121744746</v>
       </c>
       <c r="D6">
-        <v>1.030437296665189</v>
+        <v>1.035297632097577</v>
       </c>
       <c r="E6">
-        <v>1.019141863803729</v>
+        <v>1.023570118163834</v>
+      </c>
+      <c r="F6">
+        <v>1.034784992945221</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050262520180425</v>
+        <v>1.053949677712551</v>
       </c>
       <c r="J6">
-        <v>1.033803033015748</v>
+        <v>1.038947434813737</v>
       </c>
       <c r="K6">
-        <v>1.039929767519372</v>
+        <v>1.044737522334334</v>
       </c>
       <c r="L6">
-        <v>1.028758915489032</v>
+        <v>1.033137926435769</v>
+      </c>
+      <c r="M6">
+        <v>1.044230400508873</v>
       </c>
       <c r="N6">
-        <v>1.035271151901496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016578290750498</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043577779216078</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042717664509306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014123963516692</v>
+        <v>1.019348832254836</v>
       </c>
       <c r="D7">
-        <v>1.029565320567985</v>
+        <v>1.034469096719615</v>
       </c>
       <c r="E7">
-        <v>1.018210543947659</v>
+        <v>1.022593444269093</v>
+      </c>
+      <c r="F7">
+        <v>1.033830543445425</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049901260216442</v>
+        <v>1.053563777330278</v>
       </c>
       <c r="J7">
-        <v>1.033167188421675</v>
+        <v>1.038264302235963</v>
       </c>
       <c r="K7">
-        <v>1.039316660980068</v>
+        <v>1.044165706625119</v>
       </c>
       <c r="L7">
-        <v>1.028091112357194</v>
+        <v>1.032423711605024</v>
+      </c>
+      <c r="M7">
+        <v>1.043534244005758</v>
       </c>
       <c r="N7">
-        <v>1.034634404335167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016339890759179</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04302682015088</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042317529925936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009102290523669</v>
+        <v>1.014126774995239</v>
       </c>
       <c r="D8">
-        <v>1.0258519773491</v>
+        <v>1.030928914496038</v>
       </c>
       <c r="E8">
-        <v>1.014253110031941</v>
+        <v>1.018429516369336</v>
+      </c>
+      <c r="F8">
+        <v>1.029761271177159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048338899761182</v>
+        <v>1.051886863655015</v>
       </c>
       <c r="J8">
-        <v>1.030449709624882</v>
+        <v>1.035332977675972</v>
       </c>
       <c r="K8">
-        <v>1.036692793343984</v>
+        <v>1.041705618344066</v>
       </c>
       <c r="L8">
-        <v>1.025243413947783</v>
+        <v>1.029365503265973</v>
+      </c>
+      <c r="M8">
+        <v>1.0405526503305</v>
       </c>
       <c r="N8">
-        <v>1.031913066406783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015313806147564</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04066709306304</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040582613302349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9998665137080027</v>
+        <v>1.004499522396109</v>
       </c>
       <c r="D9">
-        <v>1.01903555903618</v>
+        <v>1.024418346231259</v>
       </c>
       <c r="E9">
-        <v>1.007020911318013</v>
+        <v>1.010793548870145</v>
+      </c>
+      <c r="F9">
+        <v>1.022276270665977</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045380658249632</v>
+        <v>1.048700242153013</v>
       </c>
       <c r="J9">
-        <v>1.025423986600956</v>
+        <v>1.029894385369348</v>
       </c>
       <c r="K9">
-        <v>1.031827166609922</v>
+        <v>1.037127297088978</v>
       </c>
       <c r="L9">
-        <v>1.020001096971423</v>
+        <v>1.023713902323437</v>
+      </c>
+      <c r="M9">
+        <v>1.035017981647575</v>
       </c>
       <c r="N9">
-        <v>1.026880206279705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013403973652283</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036286761531649</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037342271751741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9934250813252598</v>
+        <v>0.99787837942582</v>
       </c>
       <c r="D10">
-        <v>1.014293299541841</v>
+        <v>1.019989905462165</v>
       </c>
       <c r="E10">
-        <v>1.002010548255793</v>
+        <v>1.005589052122762</v>
+      </c>
+      <c r="F10">
+        <v>1.017615747531301</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043262657988421</v>
+        <v>1.046538568956018</v>
       </c>
       <c r="J10">
-        <v>1.02190201312023</v>
+        <v>1.026176427366514</v>
       </c>
       <c r="K10">
-        <v>1.028409192130866</v>
+        <v>1.034007378246586</v>
       </c>
       <c r="L10">
-        <v>1.016343596271812</v>
+        <v>1.019858122466168</v>
+      </c>
+      <c r="M10">
+        <v>1.031674065246682</v>
       </c>
       <c r="N10">
-        <v>1.02335323119266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01211424314795</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03369199423605</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035153098998082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.990562687597532</v>
+        <v>0.9956054844599028</v>
       </c>
       <c r="D11">
-        <v>1.012189455903824</v>
+        <v>1.018671228418907</v>
       </c>
       <c r="E11">
-        <v>0.9997926387779432</v>
+        <v>1.003922880300161</v>
+      </c>
+      <c r="F11">
+        <v>1.019833315926417</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042309055720319</v>
+        <v>1.046422912409254</v>
       </c>
       <c r="J11">
-        <v>1.020333409069154</v>
+        <v>1.025162230091075</v>
       </c>
       <c r="K11">
-        <v>1.026885100734125</v>
+        <v>1.03324941835507</v>
       </c>
       <c r="L11">
-        <v>1.014718466687585</v>
+        <v>1.018771194101143</v>
+      </c>
+      <c r="M11">
+        <v>1.034390652923865</v>
       </c>
       <c r="N11">
-        <v>1.021782399543911</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011893105734222</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036279191094901</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034650044811313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9894879429829232</v>
+        <v>0.9948980999391078</v>
       </c>
       <c r="D12">
-        <v>1.011400108599962</v>
+        <v>1.018309964142585</v>
       </c>
       <c r="E12">
-        <v>0.998961215171188</v>
+        <v>1.003446852660419</v>
+      </c>
+      <c r="F12">
+        <v>1.021985348300615</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041949189752397</v>
+        <v>1.04658145636911</v>
       </c>
       <c r="J12">
-        <v>1.019743952559541</v>
+        <v>1.024919961913154</v>
       </c>
       <c r="K12">
-        <v>1.026312111793591</v>
+        <v>1.033094584977299</v>
       </c>
       <c r="L12">
-        <v>1.014108343755395</v>
+        <v>1.018508313015093</v>
+      </c>
+      <c r="M12">
+        <v>1.036703126485638</v>
       </c>
       <c r="N12">
-        <v>1.021192105938442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011909176869338</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038434835866059</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034540572516368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9897190096275633</v>
+        <v>0.9953704604288247</v>
       </c>
       <c r="D13">
-        <v>1.011569788348551</v>
+        <v>1.018685245692181</v>
       </c>
       <c r="E13">
-        <v>0.9991399073668347</v>
+        <v>1.003873356149797</v>
+      </c>
+      <c r="F13">
+        <v>1.024268943663399</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042026641043274</v>
+        <v>1.046982448541606</v>
       </c>
       <c r="J13">
-        <v>1.01987070539522</v>
+        <v>1.025278708299353</v>
       </c>
       <c r="K13">
-        <v>1.026435335089544</v>
+        <v>1.033420150043931</v>
       </c>
       <c r="L13">
-        <v>1.014239514598295</v>
+        <v>1.018882937219428</v>
+      </c>
+      <c r="M13">
+        <v>1.038902980481684</v>
       </c>
       <c r="N13">
-        <v>1.021319038777686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012121016459414</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040450680941249</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034768264197637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9904740871103971</v>
+        <v>0.9962241269575407</v>
       </c>
       <c r="D14">
-        <v>1.012124370951222</v>
+        <v>1.019270813536192</v>
       </c>
       <c r="E14">
-        <v>0.9997240698789863</v>
+        <v>1.00457058191352</v>
+      </c>
+      <c r="F14">
+        <v>1.025868277936144</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042279425496192</v>
+        <v>1.047355776033832</v>
       </c>
       <c r="J14">
-        <v>1.020284824842378</v>
+        <v>1.025790714598628</v>
       </c>
       <c r="K14">
-        <v>1.026837879006445</v>
+        <v>1.033854741374145</v>
       </c>
       <c r="L14">
-        <v>1.01466816740964</v>
+        <v>1.01942367189421</v>
+      </c>
+      <c r="M14">
+        <v>1.040334658117029</v>
       </c>
       <c r="N14">
-        <v>1.021733746321959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012353893498781</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041755492055362</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035076959776302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.990937771963233</v>
+        <v>0.9967081675472076</v>
       </c>
       <c r="D15">
-        <v>1.012465012974841</v>
+        <v>1.019595372480953</v>
       </c>
       <c r="E15">
-        <v>1.000082975514877</v>
+        <v>1.004954896288469</v>
+      </c>
+      <c r="F15">
+        <v>1.026379390105743</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042434419570625</v>
+        <v>1.047525242965392</v>
       </c>
       <c r="J15">
-        <v>1.020539067397316</v>
+        <v>1.026066612629359</v>
       </c>
       <c r="K15">
-        <v>1.02708498105634</v>
+        <v>1.034087044697982</v>
       </c>
       <c r="L15">
-        <v>1.014931408304854</v>
+        <v>1.019712559919581</v>
+      </c>
+      <c r="M15">
+        <v>1.040751142179929</v>
       </c>
       <c r="N15">
-        <v>1.021988349930488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012461797072439</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042122163144657</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035247077919021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9936134624092569</v>
+        <v>0.9994087541639425</v>
       </c>
       <c r="D16">
-        <v>1.014431836330009</v>
+        <v>1.021388584257785</v>
       </c>
       <c r="E16">
-        <v>1.00215669691888</v>
+        <v>1.007058979429901</v>
+      </c>
+      <c r="F16">
+        <v>1.027925740497611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043325162027406</v>
+        <v>1.048366950485818</v>
       </c>
       <c r="J16">
-        <v>1.022005176322272</v>
+        <v>1.027568989278677</v>
       </c>
       <c r="K16">
-        <v>1.02850939120448</v>
+        <v>1.035346532679</v>
       </c>
       <c r="L16">
-        <v>1.016450556813446</v>
+        <v>1.021265634071797</v>
+      </c>
+      <c r="M16">
+        <v>1.041773198389792</v>
       </c>
       <c r="N16">
-        <v>1.023456540898282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012966181060947</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042891338416916</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036140744806503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9952718909513097</v>
+        <v>1.001046812426169</v>
       </c>
       <c r="D17">
-        <v>1.015651860757503</v>
+        <v>1.022471231348719</v>
       </c>
       <c r="E17">
-        <v>1.003444309890099</v>
+        <v>1.008321516743413</v>
+      </c>
+      <c r="F17">
+        <v>1.028301765958271</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043874011963282</v>
+        <v>1.048829052628469</v>
       </c>
       <c r="J17">
-        <v>1.022912983821157</v>
+        <v>1.028464822527727</v>
       </c>
       <c r="K17">
-        <v>1.029390911039555</v>
+        <v>1.036096405472537</v>
       </c>
       <c r="L17">
-        <v>1.017392216195724</v>
+        <v>1.022185196038496</v>
+      </c>
+      <c r="M17">
+        <v>1.041831115645661</v>
       </c>
       <c r="N17">
-        <v>1.024365637587942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01323528744621</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042808266315325</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036673516443471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9962321975688259</v>
+        <v>1.001869104388468</v>
       </c>
       <c r="D18">
-        <v>1.016358638147386</v>
+        <v>1.022979247288257</v>
       </c>
       <c r="E18">
-        <v>1.00419070668822</v>
+        <v>1.008923632101575</v>
+      </c>
+      <c r="F18">
+        <v>1.027391737737739</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044190637897444</v>
+        <v>1.048926973173668</v>
       </c>
       <c r="J18">
-        <v>1.023438307548258</v>
+        <v>1.028861684705429</v>
       </c>
       <c r="K18">
-        <v>1.029900850657592</v>
+        <v>1.036412777141404</v>
       </c>
       <c r="L18">
-        <v>1.017937493041262</v>
+        <v>1.022590089529894</v>
+      </c>
+      <c r="M18">
+        <v>1.040753831111873</v>
       </c>
       <c r="N18">
-        <v>1.024891707334991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013300391318511</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041719184063735</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036885571559742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9965584608822359</v>
+        <v>1.001892773537275</v>
       </c>
       <c r="D19">
-        <v>1.016598818827821</v>
+        <v>1.022910594489479</v>
       </c>
       <c r="E19">
-        <v>1.004444430171126</v>
+        <v>1.008877343031086</v>
+      </c>
+      <c r="F19">
+        <v>1.025054256019597</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044298009057047</v>
+        <v>1.048612672606824</v>
       </c>
       <c r="J19">
-        <v>1.023616727205034</v>
+        <v>1.028750254113283</v>
       </c>
       <c r="K19">
-        <v>1.030074015745639</v>
+        <v>1.036282754090442</v>
       </c>
       <c r="L19">
-        <v>1.018122751302817</v>
+        <v>1.022480850333578</v>
+      </c>
+      <c r="M19">
+        <v>1.03839179157823</v>
       </c>
       <c r="N19">
-        <v>1.025070380368145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013169284331161</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039525877100986</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036800031733448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9950946877606478</v>
+        <v>0.9996391651757078</v>
       </c>
       <c r="D20">
-        <v>1.015521466733656</v>
+        <v>1.021185394329523</v>
       </c>
       <c r="E20">
-        <v>1.003306644046505</v>
+        <v>1.006978586819249</v>
+      </c>
+      <c r="F20">
+        <v>1.018853983557428</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043815489722273</v>
+        <v>1.047133998075397</v>
       </c>
       <c r="J20">
-        <v>1.022816019387598</v>
+        <v>1.027184003489839</v>
       </c>
       <c r="K20">
-        <v>1.029296772212787</v>
+        <v>1.034865679596476</v>
       </c>
       <c r="L20">
-        <v>1.017291598235577</v>
+        <v>1.020899826172248</v>
+      </c>
+      <c r="M20">
+        <v>1.032573216561999</v>
       </c>
       <c r="N20">
-        <v>1.024268535453766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012473567035086</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034392971731889</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035802031454785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.990252058112383</v>
+        <v>0.9945173120320053</v>
       </c>
       <c r="D21">
-        <v>1.01196128048913</v>
+        <v>1.017723700938226</v>
       </c>
       <c r="E21">
-        <v>0.9995522608812564</v>
+        <v>1.002941831052886</v>
+      </c>
+      <c r="F21">
+        <v>1.014497984126046</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042205144338689</v>
+        <v>1.045309664823364</v>
       </c>
       <c r="J21">
-        <v>1.020163067078167</v>
+        <v>1.024246064244231</v>
       </c>
       <c r="K21">
-        <v>1.026719531683246</v>
+        <v>1.032376896366502</v>
       </c>
       <c r="L21">
-        <v>1.014542120785439</v>
+        <v>1.017867683062643</v>
+      </c>
+      <c r="M21">
+        <v>1.029209796795799</v>
       </c>
       <c r="N21">
-        <v>1.021611815647757</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011429335420478</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031689930602551</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034045604716298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9871403457235455</v>
+        <v>0.9912524236354727</v>
       </c>
       <c r="D22">
-        <v>1.009677055640931</v>
+        <v>1.01552800267625</v>
       </c>
       <c r="E22">
-        <v>0.9971476249168958</v>
+        <v>1.000380111295455</v>
+      </c>
+      <c r="F22">
+        <v>1.011975307276101</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041159841261561</v>
+        <v>1.04417217266457</v>
       </c>
       <c r="J22">
-        <v>1.018455525500222</v>
+        <v>1.022381416567286</v>
       </c>
       <c r="K22">
-        <v>1.02505921520871</v>
+        <v>1.030797997905748</v>
       </c>
       <c r="L22">
-        <v>1.012775800485045</v>
+        <v>1.015944041865892</v>
+      </c>
+      <c r="M22">
+        <v>1.027313206189795</v>
       </c>
       <c r="N22">
-        <v>1.019901849164913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010770136982296</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030188886037999</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032915735151794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9887964541020127</v>
+        <v>0.9929749005950812</v>
       </c>
       <c r="D23">
-        <v>1.01089241620329</v>
+        <v>1.016679319829793</v>
       </c>
       <c r="E23">
-        <v>0.9984266616048816</v>
+        <v>1.001728052396005</v>
+      </c>
+      <c r="F23">
+        <v>1.013314862606648</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041717147152618</v>
+        <v>1.044768841817517</v>
       </c>
       <c r="J23">
-        <v>1.019364563694725</v>
+        <v>1.023359498446657</v>
       </c>
       <c r="K23">
-        <v>1.025943250206613</v>
+        <v>1.031622109887765</v>
       </c>
       <c r="L23">
-        <v>1.013715815369094</v>
+        <v>1.016953334023452</v>
+      </c>
+      <c r="M23">
+        <v>1.028320272499536</v>
       </c>
       <c r="N23">
-        <v>1.020812178297922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01111251630308</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030985922662616</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033488769563173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9951747799315748</v>
+        <v>0.9996310014670663</v>
       </c>
       <c r="D24">
-        <v>1.015580401121984</v>
+        <v>1.02114953501414</v>
       </c>
       <c r="E24">
-        <v>1.003368863650221</v>
+        <v>1.006957177934193</v>
+      </c>
+      <c r="F24">
+        <v>1.018480272634627</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043841944235127</v>
+        <v>1.047058759301349</v>
       </c>
       <c r="J24">
-        <v>1.02285984635553</v>
+        <v>1.027143263089098</v>
       </c>
       <c r="K24">
-        <v>1.029339322568968</v>
+        <v>1.034815149136412</v>
       </c>
       <c r="L24">
-        <v>1.017337075432937</v>
+        <v>1.020863209433597</v>
+      </c>
+      <c r="M24">
+        <v>1.03219044444071</v>
       </c>
       <c r="N24">
-        <v>1.024312424661019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012442557707685</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034048938694266</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035738896326321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002302433878348</v>
+        <v>1.007063780583724</v>
       </c>
       <c r="D25">
-        <v>1.020831557357498</v>
+        <v>1.02616037654372</v>
       </c>
       <c r="E25">
-        <v>1.008922755829341</v>
+        <v>1.012826252828772</v>
+      </c>
+      <c r="F25">
+        <v>1.024254815931266</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046170532414017</v>
+        <v>1.049567082878516</v>
       </c>
       <c r="J25">
-        <v>1.026752559612728</v>
+        <v>1.031355736600477</v>
       </c>
       <c r="K25">
-        <v>1.033114873480812</v>
+        <v>1.038365719625651</v>
       </c>
       <c r="L25">
-        <v>1.021384118788328</v>
+        <v>1.025228667979729</v>
+      </c>
+      <c r="M25">
+        <v>1.036487923565848</v>
       </c>
       <c r="N25">
-        <v>1.028210666017542</v>
+        <v>1.013922543792364</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037450127903863</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038246466099675</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012735676776359</v>
+        <v>1.011982909562553</v>
       </c>
       <c r="D2">
-        <v>1.02997804627968</v>
+        <v>1.028719781968153</v>
       </c>
       <c r="E2">
-        <v>1.017319844104278</v>
+        <v>1.016712526883497</v>
       </c>
       <c r="F2">
-        <v>1.028689343461339</v>
+        <v>1.028498797510588</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051427311865767</v>
+        <v>1.05077810243867</v>
       </c>
       <c r="J2">
-        <v>1.034542025862243</v>
+        <v>1.033811027036566</v>
       </c>
       <c r="K2">
-        <v>1.041034958946968</v>
+        <v>1.039792995009606</v>
       </c>
       <c r="L2">
-        <v>1.028543046257757</v>
+        <v>1.027943838020316</v>
       </c>
       <c r="M2">
-        <v>1.039762951441343</v>
+        <v>1.039574878482548</v>
       </c>
       <c r="N2">
-        <v>1.015032675986809</v>
+        <v>1.015932700283367</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040042099213886</v>
+        <v>1.039893251966891</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040085551536337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039216136609358</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022527977529757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016763057446282</v>
+        <v>1.015776519745369</v>
       </c>
       <c r="D3">
-        <v>1.032706537239142</v>
+        <v>1.031183894962266</v>
       </c>
       <c r="E3">
-        <v>1.020526626559571</v>
+        <v>1.019709643595611</v>
       </c>
       <c r="F3">
-        <v>1.031825733132688</v>
+        <v>1.03159139371946</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052731952102295</v>
+        <v>1.051927443498062</v>
       </c>
       <c r="J3">
-        <v>1.036806946612401</v>
+        <v>1.035846149159135</v>
       </c>
       <c r="K3">
-        <v>1.042937359645455</v>
+        <v>1.041432733488583</v>
       </c>
       <c r="L3">
-        <v>1.030903432925864</v>
+        <v>1.030096397112827</v>
       </c>
       <c r="M3">
-        <v>1.042066969307851</v>
+        <v>1.041835404205603</v>
       </c>
       <c r="N3">
-        <v>1.015826347298895</v>
+        <v>1.016492868127736</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041865573729418</v>
+        <v>1.041682305800134</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041428050675116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040372633371509</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022875743139431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019319128573131</v>
+        <v>1.018186094709806</v>
       </c>
       <c r="D4">
-        <v>1.034441504068481</v>
+        <v>1.032752301222409</v>
       </c>
       <c r="E4">
-        <v>1.022567292243749</v>
+        <v>1.021618825508732</v>
       </c>
       <c r="F4">
-        <v>1.033816444432807</v>
+        <v>1.03355482583741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053548893958608</v>
+        <v>1.052646472628499</v>
       </c>
       <c r="J4">
-        <v>1.038241234713647</v>
+        <v>1.037135767492377</v>
       </c>
       <c r="K4">
-        <v>1.044141288219928</v>
+        <v>1.04247087367254</v>
       </c>
       <c r="L4">
-        <v>1.032400770809223</v>
+        <v>1.031463148457143</v>
       </c>
       <c r="M4">
-        <v>1.043523172059116</v>
+        <v>1.043264462720827</v>
       </c>
       <c r="N4">
-        <v>1.016328801540185</v>
+        <v>1.01684790553325</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04301805747799</v>
+        <v>1.042813307065881</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042280220950932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04110765954046</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023093471373803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020386816260416</v>
+        <v>1.019192749011894</v>
       </c>
       <c r="D5">
-        <v>1.035169223814305</v>
+        <v>1.03341058420758</v>
       </c>
       <c r="E5">
-        <v>1.023421681314187</v>
+        <v>1.022418364211234</v>
       </c>
       <c r="F5">
-        <v>1.034645246012907</v>
+        <v>1.034372311130503</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053889095660421</v>
+        <v>1.052945804984853</v>
       </c>
       <c r="J5">
-        <v>1.038841498729263</v>
+        <v>1.037675616975165</v>
       </c>
       <c r="K5">
-        <v>1.044646499473336</v>
+        <v>1.042906902499822</v>
       </c>
       <c r="L5">
-        <v>1.033027686551911</v>
+        <v>1.032035532462916</v>
       </c>
       <c r="M5">
-        <v>1.044128187025384</v>
+        <v>1.043858205958204</v>
       </c>
       <c r="N5">
-        <v>1.016539941117878</v>
+        <v>1.01699715678543</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043496884436111</v>
+        <v>1.043283213375367</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042644591113578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04142382540788</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023185063556877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020571121744746</v>
+        <v>1.019366216900428</v>
       </c>
       <c r="D6">
-        <v>1.035297632097577</v>
+        <v>1.033526841534722</v>
       </c>
       <c r="E6">
-        <v>1.023570118163834</v>
+        <v>1.022556992892423</v>
       </c>
       <c r="F6">
-        <v>1.034784992945221</v>
+        <v>1.03451006611578</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053949677712551</v>
+        <v>1.052999193856172</v>
       </c>
       <c r="J6">
-        <v>1.038947434813737</v>
+        <v>1.037770825220065</v>
       </c>
       <c r="K6">
-        <v>1.044737522334334</v>
+        <v>1.042985818516142</v>
       </c>
       <c r="L6">
-        <v>1.033137926435769</v>
+        <v>1.032136021125404</v>
       </c>
       <c r="M6">
-        <v>1.044230400508873</v>
+        <v>1.043958435366416</v>
       </c>
       <c r="N6">
-        <v>1.016578290750498</v>
+        <v>1.017024224192392</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043577779216078</v>
+        <v>1.043362537922711</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042717664509306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041489210074852</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023202502708216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019348832254836</v>
+        <v>1.01822298450544</v>
       </c>
       <c r="D7">
-        <v>1.034469096719615</v>
+        <v>1.032784653250034</v>
       </c>
       <c r="E7">
-        <v>1.022593444269093</v>
+        <v>1.021651598350501</v>
       </c>
       <c r="F7">
-        <v>1.033830543445425</v>
+        <v>1.033569951421205</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053563777330278</v>
+        <v>1.052664872165304</v>
       </c>
       <c r="J7">
-        <v>1.038264302235963</v>
+        <v>1.037165833909432</v>
       </c>
       <c r="K7">
-        <v>1.044165706625119</v>
+        <v>1.042499990940471</v>
       </c>
       <c r="L7">
-        <v>1.032423711605024</v>
+        <v>1.031492630005554</v>
       </c>
       <c r="M7">
-        <v>1.043534244005758</v>
+        <v>1.043276548756918</v>
       </c>
       <c r="N7">
-        <v>1.016339890759179</v>
+        <v>1.016884801942044</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04302682015088</v>
+        <v>1.042822872322468</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042317529925936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04115029620181</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023103107605593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014126774995239</v>
+        <v>1.013321751338404</v>
       </c>
       <c r="D8">
-        <v>1.030928914496038</v>
+        <v>1.029600574720547</v>
       </c>
       <c r="E8">
-        <v>1.018429516369336</v>
+        <v>1.017776346751624</v>
       </c>
       <c r="F8">
-        <v>1.029761271177159</v>
+        <v>1.029559870863225</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051886863655015</v>
+        <v>1.051198878939014</v>
       </c>
       <c r="J8">
-        <v>1.035332977675972</v>
+        <v>1.034550451090488</v>
       </c>
       <c r="K8">
-        <v>1.041705618344066</v>
+        <v>1.040393976807535</v>
       </c>
       <c r="L8">
-        <v>1.029365503265973</v>
+        <v>1.028720791759655</v>
       </c>
       <c r="M8">
-        <v>1.0405526503305</v>
+        <v>1.040353785477358</v>
       </c>
       <c r="N8">
-        <v>1.015313806147564</v>
+        <v>1.016219840690451</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04066709306304</v>
+        <v>1.040509704884578</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040582613302349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039666202082507</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022662451230462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004499522396109</v>
+        <v>1.004270748839638</v>
       </c>
       <c r="D9">
-        <v>1.024418346231259</v>
+        <v>1.023733659045981</v>
       </c>
       <c r="E9">
-        <v>1.010793548870145</v>
+        <v>1.010656950096444</v>
       </c>
       <c r="F9">
-        <v>1.022276270665977</v>
+        <v>1.022183844504596</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048700242153013</v>
+        <v>1.048390354390987</v>
       </c>
       <c r="J9">
-        <v>1.029894385369348</v>
+        <v>1.029673592122605</v>
       </c>
       <c r="K9">
-        <v>1.037127297088978</v>
+        <v>1.03645306224807</v>
       </c>
       <c r="L9">
-        <v>1.023713902323437</v>
+        <v>1.023579459961905</v>
       </c>
       <c r="M9">
-        <v>1.035017981647575</v>
+        <v>1.034926972960865</v>
       </c>
       <c r="N9">
-        <v>1.013403973652283</v>
+        <v>1.014885831815785</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036286761531649</v>
+        <v>1.036214733830147</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037342271751741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036876275866049</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021810854825403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.99787837942582</v>
+        <v>0.9980919331631591</v>
       </c>
       <c r="D10">
-        <v>1.019989905462165</v>
+        <v>1.019779403014881</v>
       </c>
       <c r="E10">
-        <v>1.005589052122762</v>
+        <v>1.005848422317976</v>
       </c>
       <c r="F10">
-        <v>1.017615747531301</v>
+        <v>1.017607073645153</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046538568956018</v>
+        <v>1.046509797525502</v>
       </c>
       <c r="J10">
-        <v>1.026176427366514</v>
+        <v>1.026381459703531</v>
       </c>
       <c r="K10">
-        <v>1.034007378246586</v>
+        <v>1.033800487344829</v>
       </c>
       <c r="L10">
-        <v>1.019858122466168</v>
+        <v>1.020112878517954</v>
       </c>
       <c r="M10">
-        <v>1.031674065246682</v>
+        <v>1.031665541037697</v>
       </c>
       <c r="N10">
-        <v>1.01211424314795</v>
+        <v>1.014110621167955</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03369199423605</v>
+        <v>1.033685248257119</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035153098998082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035019229978141</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021240810416539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9956054844599028</v>
+        <v>0.9959640648472695</v>
       </c>
       <c r="D11">
-        <v>1.018671228418907</v>
+        <v>1.018608882990216</v>
       </c>
       <c r="E11">
-        <v>1.003922880300161</v>
+        <v>1.004301672922778</v>
       </c>
       <c r="F11">
-        <v>1.019833315926417</v>
+        <v>1.019851255901036</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046422912409254</v>
+        <v>1.046483444891573</v>
       </c>
       <c r="J11">
-        <v>1.025162230091075</v>
+        <v>1.025505712669546</v>
       </c>
       <c r="K11">
-        <v>1.03324941835507</v>
+        <v>1.03318819342383</v>
       </c>
       <c r="L11">
-        <v>1.018771194101143</v>
+        <v>1.01914291939988</v>
       </c>
       <c r="M11">
-        <v>1.034390652923865</v>
+        <v>1.034408271460608</v>
       </c>
       <c r="N11">
-        <v>1.011893105734222</v>
+        <v>1.014187502867972</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036279191094901</v>
+        <v>1.036293127148357</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034650044811313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034622380295439</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021191531413801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9948980999391078</v>
+        <v>0.9952820871457474</v>
       </c>
       <c r="D12">
-        <v>1.018309964142585</v>
+        <v>1.018276372202311</v>
       </c>
       <c r="E12">
-        <v>1.003446852660419</v>
+        <v>1.003838429720576</v>
       </c>
       <c r="F12">
-        <v>1.021985348300615</v>
+        <v>1.022007943009717</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04658145636911</v>
+        <v>1.046658728667968</v>
       </c>
       <c r="J12">
-        <v>1.024919961913154</v>
+        <v>1.025287468408204</v>
       </c>
       <c r="K12">
-        <v>1.033094584977299</v>
+        <v>1.03306160685633</v>
       </c>
       <c r="L12">
-        <v>1.018508313015093</v>
+        <v>1.018892459107881</v>
       </c>
       <c r="M12">
-        <v>1.036703126485638</v>
+        <v>1.036725312207936</v>
       </c>
       <c r="N12">
-        <v>1.011909176869338</v>
+        <v>1.014292042441467</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038434835866059</v>
+        <v>1.038452378562226</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034540572516368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034532881293594</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021217073473683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9953704604288247</v>
+        <v>0.9956738294435058</v>
       </c>
       <c r="D13">
-        <v>1.018685245692181</v>
+        <v>1.018579021588236</v>
       </c>
       <c r="E13">
-        <v>1.003873356149797</v>
+        <v>1.004182619006041</v>
       </c>
       <c r="F13">
-        <v>1.024268943663399</v>
+        <v>1.024278062698648</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046982448541606</v>
+        <v>1.04701400589441</v>
       </c>
       <c r="J13">
-        <v>1.025278708299353</v>
+        <v>1.025569120477077</v>
       </c>
       <c r="K13">
-        <v>1.033420150043931</v>
+        <v>1.03331585878945</v>
       </c>
       <c r="L13">
-        <v>1.018882937219428</v>
+        <v>1.019186356758367</v>
       </c>
       <c r="M13">
-        <v>1.038902980481684</v>
+        <v>1.03891193595328</v>
       </c>
       <c r="N13">
-        <v>1.012121016459414</v>
+        <v>1.014396273534657</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040450680941249</v>
+        <v>1.040457760441769</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034768264197637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03470990629676</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021309148324873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9962241269575407</v>
+        <v>0.9964262015171366</v>
       </c>
       <c r="D14">
-        <v>1.019270813536192</v>
+        <v>1.019070976818431</v>
       </c>
       <c r="E14">
-        <v>1.00457058191352</v>
+        <v>1.004782617511848</v>
       </c>
       <c r="F14">
-        <v>1.025868277936144</v>
+        <v>1.025860586568629</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047355776033832</v>
+        <v>1.047328964595857</v>
       </c>
       <c r="J14">
-        <v>1.025790714598628</v>
+        <v>1.025984281913916</v>
       </c>
       <c r="K14">
-        <v>1.033854741374145</v>
+        <v>1.033658496026291</v>
       </c>
       <c r="L14">
-        <v>1.01942367189421</v>
+        <v>1.019631752055995</v>
       </c>
       <c r="M14">
-        <v>1.040334658117029</v>
+        <v>1.040327102645749</v>
       </c>
       <c r="N14">
-        <v>1.012353893498781</v>
+        <v>1.014468626833281</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041755492055362</v>
+        <v>1.041749520086576</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035076959776302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034953720724677</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021402081125298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9967081675472076</v>
+        <v>0.9968610265959972</v>
       </c>
       <c r="D15">
-        <v>1.019595372480953</v>
+        <v>1.019348927787129</v>
       </c>
       <c r="E15">
-        <v>1.004954896288469</v>
+        <v>1.005121449413651</v>
       </c>
       <c r="F15">
-        <v>1.026379390105743</v>
+        <v>1.026363459954121</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047525242965392</v>
+        <v>1.047469609680987</v>
       </c>
       <c r="J15">
-        <v>1.026066612629359</v>
+        <v>1.026213092888495</v>
       </c>
       <c r="K15">
-        <v>1.034087044697982</v>
+        <v>1.033844995381413</v>
       </c>
       <c r="L15">
-        <v>1.019712559919581</v>
+        <v>1.019876030259392</v>
       </c>
       <c r="M15">
-        <v>1.040751142179929</v>
+        <v>1.040735491217497</v>
       </c>
       <c r="N15">
-        <v>1.012461797072439</v>
+        <v>1.01449547642826</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042122163144657</v>
+        <v>1.042109792689487</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035247077919021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035092022097873</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021445823714666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9994087541639425</v>
+        <v>0.9993284501421803</v>
       </c>
       <c r="D16">
-        <v>1.021388584257785</v>
+        <v>1.020911667712009</v>
       </c>
       <c r="E16">
-        <v>1.007058979429901</v>
+        <v>1.007018479396182</v>
       </c>
       <c r="F16">
-        <v>1.027925740497611</v>
+        <v>1.027869701167523</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048366950485818</v>
+        <v>1.048170808525187</v>
       </c>
       <c r="J16">
-        <v>1.027568989278677</v>
+        <v>1.027491866843458</v>
       </c>
       <c r="K16">
-        <v>1.035346532679</v>
+        <v>1.034877748473666</v>
       </c>
       <c r="L16">
-        <v>1.021265634071797</v>
+        <v>1.021225849970169</v>
       </c>
       <c r="M16">
-        <v>1.041773198389792</v>
+        <v>1.041718098533541</v>
       </c>
       <c r="N16">
-        <v>1.012966181060947</v>
+        <v>1.014622794032272</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042891338416916</v>
+        <v>1.042847786485033</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036140744806503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035825675321677</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021659088125666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001046812426169</v>
+        <v>1.00084936890331</v>
       </c>
       <c r="D17">
-        <v>1.022471231348719</v>
+        <v>1.021871926137617</v>
       </c>
       <c r="E17">
-        <v>1.008321516743413</v>
+        <v>1.008180374199092</v>
       </c>
       <c r="F17">
-        <v>1.028301765958271</v>
+        <v>1.028224631770638</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048829052628469</v>
+        <v>1.048559620734853</v>
       </c>
       <c r="J17">
-        <v>1.028464822527727</v>
+        <v>1.028274946201282</v>
       </c>
       <c r="K17">
-        <v>1.036096405472537</v>
+        <v>1.035507029588093</v>
       </c>
       <c r="L17">
-        <v>1.022185196038496</v>
+        <v>1.022046476157367</v>
       </c>
       <c r="M17">
-        <v>1.041831115645661</v>
+        <v>1.041755240037561</v>
       </c>
       <c r="N17">
-        <v>1.01323528744621</v>
+        <v>1.014714900271595</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042808266315325</v>
+        <v>1.042748286916292</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036673516443471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036273429428526</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.0217778581588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001869104388468</v>
+        <v>1.001638049282156</v>
       </c>
       <c r="D18">
-        <v>1.022979247288257</v>
+        <v>1.022337811956178</v>
       </c>
       <c r="E18">
-        <v>1.008923632101575</v>
+        <v>1.008759262737092</v>
       </c>
       <c r="F18">
-        <v>1.027391737737739</v>
+        <v>1.027307148292786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048926973173668</v>
+        <v>1.048633624996057</v>
       </c>
       <c r="J18">
-        <v>1.028861684705429</v>
+        <v>1.028639315601296</v>
       </c>
       <c r="K18">
-        <v>1.036412777141404</v>
+        <v>1.035781792357063</v>
       </c>
       <c r="L18">
-        <v>1.022590089529894</v>
+        <v>1.022428493602798</v>
       </c>
       <c r="M18">
-        <v>1.040753831111873</v>
+        <v>1.040670603733796</v>
       </c>
       <c r="N18">
-        <v>1.013300391318511</v>
+        <v>1.014727860722362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041719184063735</v>
+        <v>1.04165337948521</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036885571559742</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036454927980495</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021805204436834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001892773537275</v>
+        <v>1.001703201197812</v>
       </c>
       <c r="D19">
-        <v>1.022910594489479</v>
+        <v>1.022302832593419</v>
       </c>
       <c r="E19">
-        <v>1.008877343031086</v>
+        <v>1.008758752802312</v>
       </c>
       <c r="F19">
-        <v>1.025054256019597</v>
+        <v>1.024974972008267</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048612672606824</v>
+        <v>1.048341256991496</v>
       </c>
       <c r="J19">
-        <v>1.028750254113283</v>
+        <v>1.028567765782303</v>
       </c>
       <c r="K19">
-        <v>1.036282754090442</v>
+        <v>1.035684842584472</v>
       </c>
       <c r="L19">
-        <v>1.022480850333578</v>
+        <v>1.02236425050444</v>
       </c>
       <c r="M19">
-        <v>1.03839179157823</v>
+        <v>1.038313784838659</v>
       </c>
       <c r="N19">
-        <v>1.013169284331161</v>
+        <v>1.014639932475982</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039525877100986</v>
+        <v>1.03946418015973</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036800031733448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036393396871433</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021738350154511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9996391651757078</v>
+        <v>0.9997032978762352</v>
       </c>
       <c r="D20">
-        <v>1.021185394329523</v>
+        <v>1.0208256726363</v>
       </c>
       <c r="E20">
-        <v>1.006978586819249</v>
+        <v>1.007102082732804</v>
       </c>
       <c r="F20">
-        <v>1.018853983557428</v>
+        <v>1.018818031817752</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047133998075397</v>
+        <v>1.047014395023372</v>
       </c>
       <c r="J20">
-        <v>1.027184003489839</v>
+        <v>1.027245661685704</v>
       </c>
       <c r="K20">
-        <v>1.034865679596476</v>
+        <v>1.034511952336363</v>
       </c>
       <c r="L20">
-        <v>1.020899826172248</v>
+        <v>1.021021189654125</v>
       </c>
       <c r="M20">
-        <v>1.032573216561999</v>
+        <v>1.032537867218437</v>
       </c>
       <c r="N20">
-        <v>1.012473567035086</v>
+        <v>1.014250208114731</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034392971731889</v>
+        <v>1.034364996257902</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035802031454785</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035568437877707</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021398148093305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9945173120320053</v>
+        <v>0.9950771557341365</v>
       </c>
       <c r="D21">
-        <v>1.017723700938226</v>
+        <v>1.017846304295031</v>
       </c>
       <c r="E21">
-        <v>1.002941831052886</v>
+        <v>1.003518754099972</v>
       </c>
       <c r="F21">
-        <v>1.014497984126046</v>
+        <v>1.014551779377457</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045309664823364</v>
+        <v>1.045486390243256</v>
       </c>
       <c r="J21">
-        <v>1.024246064244231</v>
+        <v>1.0247821507545</v>
       </c>
       <c r="K21">
-        <v>1.032376896366502</v>
+        <v>1.032497281323954</v>
       </c>
       <c r="L21">
-        <v>1.017867683062643</v>
+        <v>1.018433767855076</v>
       </c>
       <c r="M21">
-        <v>1.029209796795799</v>
+        <v>1.029262610509838</v>
       </c>
       <c r="N21">
-        <v>1.011429335420478</v>
+        <v>1.013998985390255</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031689930602551</v>
+        <v>1.031731729634116</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034045604716298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034147560270434</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020961935085921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9912524236354727</v>
+        <v>0.9921264830510012</v>
       </c>
       <c r="D22">
-        <v>1.01552800267625</v>
+        <v>1.015956100790757</v>
       </c>
       <c r="E22">
-        <v>1.000380111295455</v>
+        <v>1.001244752865651</v>
       </c>
       <c r="F22">
-        <v>1.011975307276101</v>
+        <v>1.012086830816858</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04417217266457</v>
+        <v>1.044536060301883</v>
       </c>
       <c r="J22">
-        <v>1.022381416567286</v>
+        <v>1.023216185142507</v>
       </c>
       <c r="K22">
-        <v>1.030797997905748</v>
+        <v>1.031217955584674</v>
       </c>
       <c r="L22">
-        <v>1.015944041865892</v>
+        <v>1.016791591223551</v>
       </c>
       <c r="M22">
-        <v>1.027313206189795</v>
+        <v>1.027422588660443</v>
       </c>
       <c r="N22">
-        <v>1.010770136982296</v>
+        <v>1.013835653958791</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030188886037999</v>
+        <v>1.030275456186289</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032915735151794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033228209534495</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020685533926434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9929749005950812</v>
+        <v>0.9936679520923395</v>
       </c>
       <c r="D23">
-        <v>1.016679319829793</v>
+        <v>1.016934712335674</v>
       </c>
       <c r="E23">
-        <v>1.001728052396005</v>
+        <v>1.002426450359583</v>
       </c>
       <c r="F23">
-        <v>1.013314862606648</v>
+        <v>1.013393429134904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044768841817517</v>
+        <v>1.045026126940736</v>
       </c>
       <c r="J23">
-        <v>1.023359498446657</v>
+        <v>1.02402232518073</v>
       </c>
       <c r="K23">
-        <v>1.031622109887765</v>
+        <v>1.031872771047392</v>
       </c>
       <c r="L23">
-        <v>1.016953334023452</v>
+        <v>1.017638290652489</v>
       </c>
       <c r="M23">
-        <v>1.028320272499536</v>
+        <v>1.028397370545886</v>
       </c>
       <c r="N23">
-        <v>1.01111251630308</v>
+        <v>1.013871952225634</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030985922662616</v>
+        <v>1.031046941413938</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033488769563173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033680601175806</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020822655079771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9996310014670663</v>
+        <v>0.9997040290757222</v>
       </c>
       <c r="D24">
-        <v>1.02114953501414</v>
+        <v>1.020797345872345</v>
       </c>
       <c r="E24">
-        <v>1.006957177934193</v>
+        <v>1.007090132620411</v>
       </c>
       <c r="F24">
-        <v>1.018480272634627</v>
+        <v>1.018445722833876</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047058759301349</v>
+        <v>1.046944053752741</v>
       </c>
       <c r="J24">
-        <v>1.027143263089098</v>
+        <v>1.02721347691915</v>
       </c>
       <c r="K24">
-        <v>1.034815149136412</v>
+        <v>1.034468821857993</v>
       </c>
       <c r="L24">
-        <v>1.020863209433597</v>
+        <v>1.020993871217302</v>
       </c>
       <c r="M24">
-        <v>1.03219044444071</v>
+        <v>1.03215647334925</v>
       </c>
       <c r="N24">
-        <v>1.012442557707685</v>
+        <v>1.014226823917651</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034048938694266</v>
+        <v>1.034022052609073</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035738896326321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035507864095298</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021377731456408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007063780583724</v>
+        <v>1.006665632299744</v>
       </c>
       <c r="D25">
-        <v>1.02616037654372</v>
+        <v>1.025292962774004</v>
       </c>
       <c r="E25">
-        <v>1.012826252828772</v>
+        <v>1.012537037089448</v>
       </c>
       <c r="F25">
-        <v>1.024254815931266</v>
+        <v>1.02413066570573</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049567082878516</v>
+        <v>1.049148736639157</v>
       </c>
       <c r="J25">
-        <v>1.031355736600477</v>
+        <v>1.030970734947465</v>
       </c>
       <c r="K25">
-        <v>1.038365719625651</v>
+        <v>1.037510928086082</v>
       </c>
       <c r="L25">
-        <v>1.025228667979729</v>
+        <v>1.024943799921424</v>
       </c>
       <c r="M25">
-        <v>1.036487923565848</v>
+        <v>1.036365586792669</v>
       </c>
       <c r="N25">
-        <v>1.013922543792364</v>
+        <v>1.01521268064074</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037450127903863</v>
+        <v>1.037353306131796</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038246466099675</v>
+        <v>1.037655608957726</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022044183993213</v>
       </c>
     </row>
   </sheetData>
